--- a/data/Consolidado_Preços_Esporte_Amador.xlsx
+++ b/data/Consolidado_Preços_Esporte_Amador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.pneto\Downloads\Sites\SNEAELIS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6B392A-8FC0-414E-A727-E08A427F9CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED4D4E0-41FF-4EB7-A0DF-8991A1087AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40080" yWindow="5430" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2124,8 +2124,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -2166,10 +2167,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -2476,7 +2477,7 @@
   <dimension ref="A1:L709"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2486,7 +2487,7 @@
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="127.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
@@ -2495,7 +2496,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>693</v>
       </c>
       <c r="B1" t="s">
@@ -2510,7 +2511,7 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>697</v>
       </c>
       <c r="G1" t="s">
@@ -2548,7 +2549,7 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>320</v>
       </c>
       <c r="G2" t="s">
@@ -2583,7 +2584,7 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>252</v>
       </c>
       <c r="G3" t="s">
@@ -2618,7 +2619,7 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>180</v>
       </c>
       <c r="G4" t="s">
@@ -2653,7 +2654,7 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>300</v>
       </c>
       <c r="G5" t="s">
@@ -2688,7 +2689,7 @@
       <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>355</v>
       </c>
       <c r="G6" t="s">
@@ -2723,7 +2724,7 @@
       <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>309</v>
       </c>
       <c r="G7" t="s">
@@ -2758,7 +2759,7 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>490</v>
       </c>
       <c r="G8" t="s">
@@ -2793,7 +2794,7 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>198</v>
       </c>
       <c r="G9" t="s">
@@ -2828,7 +2829,7 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>230</v>
       </c>
       <c r="G10" t="s">
@@ -2863,7 +2864,7 @@
       <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>250</v>
       </c>
       <c r="G11" t="s">
@@ -2898,7 +2899,7 @@
       <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>269</v>
       </c>
       <c r="G12" t="s">
@@ -2933,7 +2934,7 @@
       <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>249</v>
       </c>
       <c r="G13" t="s">
@@ -2968,7 +2969,7 @@
       <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>290</v>
       </c>
       <c r="G14" t="s">
@@ -3003,7 +3004,7 @@
       <c r="E15" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>290</v>
       </c>
       <c r="G15" t="s">
@@ -3038,7 +3039,7 @@
       <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>206</v>
       </c>
       <c r="G16" t="s">
@@ -3073,7 +3074,7 @@
       <c r="E17" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>210</v>
       </c>
       <c r="G17" t="s">
@@ -3108,7 +3109,7 @@
       <c r="E18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>290</v>
       </c>
       <c r="G18" t="s">
@@ -3143,7 +3144,7 @@
       <c r="E19" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>505</v>
       </c>
       <c r="G19" t="s">
@@ -3178,7 +3179,7 @@
       <c r="E20" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>300</v>
       </c>
       <c r="G20" t="s">
@@ -3213,7 +3214,7 @@
       <c r="E21" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>450</v>
       </c>
       <c r="G21" t="s">
@@ -3248,7 +3249,7 @@
       <c r="E22" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>309</v>
       </c>
       <c r="G22" t="s">
@@ -3283,7 +3284,7 @@
       <c r="E23" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>2240</v>
       </c>
       <c r="G23" t="s">
@@ -3318,7 +3319,7 @@
       <c r="E24" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>73</v>
       </c>
       <c r="G24" t="s">
@@ -3353,7 +3354,7 @@
       <c r="E25" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>135</v>
       </c>
       <c r="G25" t="s">
@@ -3388,7 +3389,7 @@
       <c r="E26" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>2119.09</v>
       </c>
       <c r="G26" t="s">
@@ -3423,7 +3424,7 @@
       <c r="E27" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>300</v>
       </c>
       <c r="G27" t="s">
@@ -3458,7 +3459,7 @@
       <c r="E28" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>250</v>
       </c>
       <c r="G28" t="s">
@@ -3490,7 +3491,7 @@
       <c r="E29" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>345</v>
       </c>
       <c r="G29" t="s">
@@ -3525,7 +3526,7 @@
       <c r="E30" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>6416.98</v>
       </c>
       <c r="G30" t="s">
@@ -3560,7 +3561,7 @@
       <c r="E31" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>5811.72</v>
       </c>
       <c r="G31" t="s">
@@ -3595,7 +3596,7 @@
       <c r="E32" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>5989.65</v>
       </c>
       <c r="G32" t="s">
@@ -3630,7 +3631,7 @@
       <c r="E33" t="s">
         <v>89</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>5157.46</v>
       </c>
       <c r="G33" t="s">
@@ -3665,7 +3666,7 @@
       <c r="E34" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>4691.38</v>
       </c>
       <c r="G34" t="s">
@@ -3700,7 +3701,7 @@
       <c r="E35" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>3903.32</v>
       </c>
       <c r="G35" t="s">
@@ -3735,7 +3736,7 @@
       <c r="E36" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="2">
         <v>4391.05</v>
       </c>
       <c r="G36" t="s">
@@ -3770,7 +3771,7 @@
       <c r="E37" t="s">
         <v>89</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="2">
         <v>7099.5</v>
       </c>
       <c r="G37" t="s">
@@ -3805,7 +3806,7 @@
       <c r="E38" t="s">
         <v>89</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="2">
         <v>5396.03</v>
       </c>
       <c r="G38" t="s">
@@ -3840,7 +3841,7 @@
       <c r="E39" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="2">
         <v>4793.84</v>
       </c>
       <c r="G39" t="s">
@@ -3875,7 +3876,7 @@
       <c r="E40" t="s">
         <v>89</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="2">
         <v>5462.87</v>
       </c>
       <c r="G40" t="s">
@@ -3910,7 +3911,7 @@
       <c r="E41" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>872</v>
       </c>
       <c r="G41" t="s">
@@ -3945,7 +3946,7 @@
       <c r="E42" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>3396</v>
       </c>
       <c r="G42" t="s">
@@ -3980,7 +3981,7 @@
       <c r="E43" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>2922.17</v>
       </c>
       <c r="G43" t="s">
@@ -4015,7 +4016,7 @@
       <c r="E44" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>2746.74</v>
       </c>
       <c r="G44" t="s">
@@ -4050,7 +4051,7 @@
       <c r="E45" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="2">
         <v>5303.66</v>
       </c>
       <c r="G45" t="s">
@@ -4085,7 +4086,7 @@
       <c r="E46" t="s">
         <v>89</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="2">
         <v>3261.16</v>
       </c>
       <c r="G46" t="s">
@@ -4120,7 +4121,7 @@
       <c r="E47" t="s">
         <v>89</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="2">
         <v>3012.38</v>
       </c>
       <c r="G47" t="s">
@@ -4155,7 +4156,7 @@
       <c r="E48" t="s">
         <v>89</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="2">
         <v>3201.86</v>
       </c>
       <c r="G48" t="s">
@@ -4190,7 +4191,7 @@
       <c r="E49" t="s">
         <v>89</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="2">
         <v>3544.79</v>
       </c>
       <c r="G49" t="s">
@@ -4225,7 +4226,7 @@
       <c r="E50" t="s">
         <v>89</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="2">
         <v>3734.66</v>
       </c>
       <c r="G50" t="s">
@@ -4260,7 +4261,7 @@
       <c r="E51" t="s">
         <v>89</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="2">
         <v>2805.11</v>
       </c>
       <c r="G51" t="s">
@@ -4295,7 +4296,7 @@
       <c r="E52" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="2">
         <v>3539.68</v>
       </c>
       <c r="G52" t="s">
@@ -4330,7 +4331,7 @@
       <c r="E53" t="s">
         <v>89</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="2">
         <v>3615.91</v>
       </c>
       <c r="G53" t="s">
@@ -4365,7 +4366,7 @@
       <c r="E54" t="s">
         <v>89</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="2">
         <v>3274.39</v>
       </c>
       <c r="G54" t="s">
@@ -4400,7 +4401,7 @@
       <c r="E55" t="s">
         <v>89</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="2">
         <v>2505.17</v>
       </c>
       <c r="G55" t="s">
@@ -4435,7 +4436,7 @@
       <c r="E56" t="s">
         <v>89</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="2">
         <v>3571.79</v>
       </c>
       <c r="G56" t="s">
@@ -4470,7 +4471,7 @@
       <c r="E57" t="s">
         <v>89</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="2">
         <v>4112.3500000000004</v>
       </c>
       <c r="G57" t="s">
@@ -4505,7 +4506,7 @@
       <c r="E58" t="s">
         <v>89</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="2">
         <v>4710.3500000000004</v>
       </c>
       <c r="G58" t="s">
@@ -4540,7 +4541,7 @@
       <c r="E59" t="s">
         <v>89</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="2">
         <v>3060.79</v>
       </c>
       <c r="G59" t="s">
@@ -4575,7 +4576,7 @@
       <c r="E60" t="s">
         <v>89</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="2">
         <v>2450.5300000000002</v>
       </c>
       <c r="G60" t="s">
@@ -4610,7 +4611,7 @@
       <c r="E61" t="s">
         <v>89</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="2">
         <v>3537.52</v>
       </c>
       <c r="G61" t="s">
@@ -4645,7 +4646,7 @@
       <c r="E62" t="s">
         <v>89</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="2">
         <v>3120.42</v>
       </c>
       <c r="G62" t="s">
@@ -4680,7 +4681,7 @@
       <c r="E63" t="s">
         <v>89</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="2">
         <v>3030</v>
       </c>
       <c r="G63" t="s">
@@ -4715,7 +4716,7 @@
       <c r="E64" t="s">
         <v>89</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="2">
         <v>3851.93</v>
       </c>
       <c r="G64" t="s">
@@ -4750,7 +4751,7 @@
       <c r="E65" t="s">
         <v>89</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="2">
         <v>3377.13</v>
       </c>
       <c r="G65" t="s">
@@ -4785,7 +4786,7 @@
       <c r="E66" t="s">
         <v>89</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="2">
         <v>3178.06</v>
       </c>
       <c r="G66" t="s">
@@ -4820,7 +4821,7 @@
       <c r="E67" t="s">
         <v>89</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="2">
         <v>3665.39</v>
       </c>
       <c r="G67" t="s">
@@ -4855,7 +4856,7 @@
       <c r="E68" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="2">
         <v>3605.34</v>
       </c>
       <c r="G68" t="s">
@@ -4890,7 +4891,7 @@
       <c r="E69" t="s">
         <v>89</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="2">
         <v>3315.6</v>
       </c>
       <c r="G69" t="s">
@@ -4925,7 +4926,7 @@
       <c r="E70" t="s">
         <v>89</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="2">
         <v>4063.89</v>
       </c>
       <c r="G70" t="s">
@@ -4960,7 +4961,7 @@
       <c r="E71" t="s">
         <v>89</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71" s="2">
         <v>3204</v>
       </c>
       <c r="G71" t="s">
@@ -4995,7 +4996,7 @@
       <c r="E72" t="s">
         <v>89</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="2">
         <v>2660.05</v>
       </c>
       <c r="G72" t="s">
@@ -5030,7 +5031,7 @@
       <c r="E73" t="s">
         <v>89</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73" s="2">
         <v>2869.69</v>
       </c>
       <c r="G73" t="s">
@@ -5065,7 +5066,7 @@
       <c r="E74" t="s">
         <v>89</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="2">
         <v>3520.57</v>
       </c>
       <c r="G74" t="s">
@@ -5100,7 +5101,7 @@
       <c r="E75" t="s">
         <v>89</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="2">
         <v>3582.31</v>
       </c>
       <c r="G75" t="s">
@@ -5135,7 +5136,7 @@
       <c r="E76" t="s">
         <v>89</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="2">
         <v>3693.86</v>
       </c>
       <c r="G76" t="s">
@@ -5170,7 +5171,7 @@
       <c r="E77" t="s">
         <v>89</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="2">
         <v>2790.27</v>
       </c>
       <c r="G77" t="s">
@@ -5205,7 +5206,7 @@
       <c r="E78" t="s">
         <v>89</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78" s="2">
         <v>3223.81</v>
       </c>
       <c r="G78" t="s">
@@ -5240,7 +5241,7 @@
       <c r="E79" t="s">
         <v>89</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="2">
         <v>3747.18</v>
       </c>
       <c r="G79" t="s">
@@ -5275,7 +5276,7 @@
       <c r="E80" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="2">
         <v>3626.35</v>
       </c>
       <c r="G80" t="s">
@@ -5310,7 +5311,7 @@
       <c r="E81" t="s">
         <v>89</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="2">
         <v>2536.5300000000002</v>
       </c>
       <c r="G81" t="s">
@@ -5345,7 +5346,7 @@
       <c r="E82" t="s">
         <v>89</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82" s="2">
         <v>4337.04</v>
       </c>
       <c r="G82" t="s">
@@ -5380,7 +5381,7 @@
       <c r="E83" t="s">
         <v>89</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="2">
         <v>3047.67</v>
       </c>
       <c r="G83" t="s">
@@ -5415,7 +5416,7 @@
       <c r="E84" t="s">
         <v>31</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84" s="2">
         <v>241.5</v>
       </c>
       <c r="G84" t="s">
@@ -5450,7 +5451,7 @@
       <c r="E85" t="s">
         <v>89</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="2">
         <v>4000</v>
       </c>
       <c r="G85" t="s">
@@ -5485,7 +5486,7 @@
       <c r="E86" t="s">
         <v>89</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="2">
         <v>5022.99</v>
       </c>
       <c r="G86" t="s">
@@ -5520,7 +5521,7 @@
       <c r="E87" t="s">
         <v>89</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87" s="2">
         <v>3728.44</v>
       </c>
       <c r="G87" t="s">
@@ -5555,7 +5556,7 @@
       <c r="E88" t="s">
         <v>89</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F88" s="2">
         <v>7189.72</v>
       </c>
       <c r="G88" t="s">
@@ -5590,7 +5591,7 @@
       <c r="E89" t="s">
         <v>89</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89" s="2">
         <v>3761.36</v>
       </c>
       <c r="G89" t="s">
@@ -5625,7 +5626,7 @@
       <c r="E90" t="s">
         <v>89</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90" s="2">
         <v>3221.97</v>
       </c>
       <c r="G90" t="s">
@@ -5660,7 +5661,7 @@
       <c r="E91" t="s">
         <v>89</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F91" s="2">
         <v>7257.72</v>
       </c>
       <c r="G91" t="s">
@@ -5695,7 +5696,7 @@
       <c r="E92" t="s">
         <v>89</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F92" s="2">
         <v>6557.02</v>
       </c>
       <c r="G92" t="s">
@@ -5730,7 +5731,7 @@
       <c r="E93" t="s">
         <v>89</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93" s="2">
         <v>5807.27</v>
       </c>
       <c r="G93" t="s">
@@ -5765,7 +5766,7 @@
       <c r="E94" t="s">
         <v>89</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94" s="2">
         <v>6109.69</v>
       </c>
       <c r="G94" t="s">
@@ -5800,7 +5801,7 @@
       <c r="E95" t="s">
         <v>89</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F95" s="2">
         <v>8049.38</v>
       </c>
       <c r="G95" t="s">
@@ -5835,7 +5836,7 @@
       <c r="E96" t="s">
         <v>89</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F96" s="2">
         <v>7271.55</v>
       </c>
       <c r="G96" t="s">
@@ -5870,7 +5871,7 @@
       <c r="E97" t="s">
         <v>89</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F97" s="2">
         <v>5057.7700000000004</v>
       </c>
       <c r="G97" t="s">
@@ -5905,7 +5906,7 @@
       <c r="E98" t="s">
         <v>89</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F98" s="2">
         <v>6739.25</v>
       </c>
       <c r="G98" t="s">
@@ -5940,7 +5941,7 @@
       <c r="E99" t="s">
         <v>89</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F99" s="2">
         <v>5328.45</v>
       </c>
       <c r="G99" t="s">
@@ -5975,7 +5976,7 @@
       <c r="E100" t="s">
         <v>89</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F100" s="2">
         <v>4542.03</v>
       </c>
       <c r="G100" t="s">
@@ -6010,7 +6011,7 @@
       <c r="E101" t="s">
         <v>89</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F101" s="2">
         <v>5408</v>
       </c>
       <c r="G101" t="s">
@@ -6045,7 +6046,7 @@
       <c r="E102" t="s">
         <v>89</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F102" s="2">
         <v>6723.21</v>
       </c>
       <c r="G102" t="s">
@@ -6080,7 +6081,7 @@
       <c r="E103" t="s">
         <v>89</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F103" s="2">
         <v>6805.28</v>
       </c>
       <c r="G103" t="s">
@@ -6115,7 +6116,7 @@
       <c r="E104" t="s">
         <v>89</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F104" s="2">
         <v>7725.02</v>
       </c>
       <c r="G104" t="s">
@@ -6150,7 +6151,7 @@
       <c r="E105" t="s">
         <v>89</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F105" s="2">
         <v>8267.48</v>
       </c>
       <c r="G105" t="s">
@@ -6185,7 +6186,7 @@
       <c r="E106" t="s">
         <v>89</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F106" s="2">
         <v>7663.17</v>
       </c>
       <c r="G106" t="s">
@@ -6220,7 +6221,7 @@
       <c r="E107" t="s">
         <v>89</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F107" s="2">
         <v>8309.4</v>
       </c>
       <c r="G107" t="s">
@@ -6255,7 +6256,7 @@
       <c r="E108" t="s">
         <v>89</v>
       </c>
-      <c r="F108" s="1">
+      <c r="F108" s="2">
         <v>4092.16</v>
       </c>
       <c r="G108" t="s">
@@ -6290,7 +6291,7 @@
       <c r="E109" t="s">
         <v>89</v>
       </c>
-      <c r="F109" s="1">
+      <c r="F109" s="2">
         <v>4211.42</v>
       </c>
       <c r="G109" t="s">
@@ -6325,7 +6326,7 @@
       <c r="E110" t="s">
         <v>89</v>
       </c>
-      <c r="F110" s="1">
+      <c r="F110" s="2">
         <v>3785</v>
       </c>
       <c r="G110" t="s">
@@ -6360,7 +6361,7 @@
       <c r="E111" t="s">
         <v>89</v>
       </c>
-      <c r="F111" s="1">
+      <c r="F111" s="2">
         <v>5847.78</v>
       </c>
       <c r="G111" t="s">
@@ -6395,7 +6396,7 @@
       <c r="E112" t="s">
         <v>89</v>
       </c>
-      <c r="F112" s="1">
+      <c r="F112" s="2">
         <v>3726.2</v>
       </c>
       <c r="G112" t="s">
@@ -6430,7 +6431,7 @@
       <c r="E113" t="s">
         <v>89</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F113" s="2">
         <v>3675.48</v>
       </c>
       <c r="G113" t="s">
@@ -6465,7 +6466,7 @@
       <c r="E114" t="s">
         <v>89</v>
       </c>
-      <c r="F114" s="1">
+      <c r="F114" s="2">
         <v>4217.16</v>
       </c>
       <c r="G114" t="s">
@@ -6500,7 +6501,7 @@
       <c r="E115" t="s">
         <v>89</v>
       </c>
-      <c r="F115" s="1">
+      <c r="F115" s="2">
         <v>3637.39</v>
       </c>
       <c r="G115" t="s">
@@ -6535,7 +6536,7 @@
       <c r="E116" t="s">
         <v>89</v>
       </c>
-      <c r="F116" s="1">
+      <c r="F116" s="2">
         <v>3434.42</v>
       </c>
       <c r="G116" t="s">
@@ -6570,7 +6571,7 @@
       <c r="E117" t="s">
         <v>89</v>
       </c>
-      <c r="F117" s="1">
+      <c r="F117" s="2">
         <v>4283.04</v>
       </c>
       <c r="G117" t="s">
@@ -6605,7 +6606,7 @@
       <c r="E118" t="s">
         <v>89</v>
       </c>
-      <c r="F118" s="1">
+      <c r="F118" s="2">
         <v>5337.41</v>
       </c>
       <c r="G118" t="s">
@@ -6640,7 +6641,7 @@
       <c r="E119" t="s">
         <v>89</v>
       </c>
-      <c r="F119" s="1">
+      <c r="F119" s="2">
         <v>3439.37</v>
       </c>
       <c r="G119" t="s">
@@ -6675,7 +6676,7 @@
       <c r="E120" t="s">
         <v>89</v>
       </c>
-      <c r="F120" s="1">
+      <c r="F120" s="2">
         <v>4309.8500000000004</v>
       </c>
       <c r="G120" t="s">
@@ -6710,7 +6711,7 @@
       <c r="E121" t="s">
         <v>89</v>
       </c>
-      <c r="F121" s="1">
+      <c r="F121" s="2">
         <v>4010.47</v>
       </c>
       <c r="G121" t="s">
@@ -6745,7 +6746,7 @@
       <c r="E122" t="s">
         <v>89</v>
       </c>
-      <c r="F122" s="1">
+      <c r="F122" s="2">
         <v>5340.9</v>
       </c>
       <c r="G122" t="s">
@@ -6780,7 +6781,7 @@
       <c r="E123" t="s">
         <v>89</v>
       </c>
-      <c r="F123" s="1">
+      <c r="F123" s="2">
         <v>5822.77</v>
       </c>
       <c r="G123" t="s">
@@ -6815,7 +6816,7 @@
       <c r="E124" t="s">
         <v>89</v>
       </c>
-      <c r="F124" s="1">
+      <c r="F124" s="2">
         <v>4631.1899999999996</v>
       </c>
       <c r="G124" t="s">
@@ -6850,7 +6851,7 @@
       <c r="E125" t="s">
         <v>89</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F125" s="2">
         <v>4744.43</v>
       </c>
       <c r="G125" t="s">
@@ -6885,7 +6886,7 @@
       <c r="E126" t="s">
         <v>89</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F126" s="2">
         <v>3346.75</v>
       </c>
       <c r="G126" t="s">
@@ -6920,7 +6921,7 @@
       <c r="E127" t="s">
         <v>89</v>
       </c>
-      <c r="F127" s="1">
+      <c r="F127" s="2">
         <v>5535.54</v>
       </c>
       <c r="G127" t="s">
@@ -6955,7 +6956,7 @@
       <c r="E128" t="s">
         <v>89</v>
       </c>
-      <c r="F128" s="1">
+      <c r="F128" s="2">
         <v>4881.8599999999997</v>
       </c>
       <c r="G128" t="s">
@@ -6990,7 +6991,7 @@
       <c r="E129" t="s">
         <v>89</v>
       </c>
-      <c r="F129" s="1">
+      <c r="F129" s="2">
         <v>3002.26</v>
       </c>
       <c r="G129" t="s">
@@ -7025,7 +7026,7 @@
       <c r="E130" t="s">
         <v>89</v>
       </c>
-      <c r="F130" s="1">
+      <c r="F130" s="2">
         <v>3688.67</v>
       </c>
       <c r="G130" t="s">
@@ -7060,7 +7061,7 @@
       <c r="E131" t="s">
         <v>89</v>
       </c>
-      <c r="F131" s="1">
+      <c r="F131" s="2">
         <v>4684.09</v>
       </c>
       <c r="G131" t="s">
@@ -7095,7 +7096,7 @@
       <c r="E132" t="s">
         <v>89</v>
       </c>
-      <c r="F132" s="1">
+      <c r="F132" s="2">
         <v>4556.5600000000004</v>
       </c>
       <c r="G132" t="s">
@@ -7130,7 +7131,7 @@
       <c r="E133" t="s">
         <v>89</v>
       </c>
-      <c r="F133" s="1">
+      <c r="F133" s="2">
         <v>4803.2700000000004</v>
       </c>
       <c r="G133" t="s">
@@ -7165,7 +7166,7 @@
       <c r="E134" t="s">
         <v>89</v>
       </c>
-      <c r="F134" s="1">
+      <c r="F134" s="2">
         <v>3583.9</v>
       </c>
       <c r="G134" t="s">
@@ -7200,7 +7201,7 @@
       <c r="E135" t="s">
         <v>89</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F135" s="2">
         <v>4002.58</v>
       </c>
       <c r="G135" t="s">
@@ -7235,7 +7236,7 @@
       <c r="E136" t="s">
         <v>89</v>
       </c>
-      <c r="F136" s="1">
+      <c r="F136" s="2">
         <v>4161.18</v>
       </c>
       <c r="G136" t="s">
@@ -7270,7 +7271,7 @@
       <c r="E137" t="s">
         <v>89</v>
       </c>
-      <c r="F137" s="1">
+      <c r="F137" s="2">
         <v>4838.78</v>
       </c>
       <c r="G137" t="s">
@@ -7305,7 +7306,7 @@
       <c r="E138" t="s">
         <v>89</v>
       </c>
-      <c r="F138" s="1">
+      <c r="F138" s="2">
         <v>3809.26</v>
       </c>
       <c r="G138" t="s">
@@ -7340,7 +7341,7 @@
       <c r="E139" t="s">
         <v>89</v>
       </c>
-      <c r="F139" s="1">
+      <c r="F139" s="2">
         <v>3932.57</v>
       </c>
       <c r="G139" t="s">
@@ -7375,7 +7376,7 @@
       <c r="E140" t="s">
         <v>89</v>
       </c>
-      <c r="F140" s="1">
+      <c r="F140" s="2">
         <v>4037.09</v>
       </c>
       <c r="G140" t="s">
@@ -7410,7 +7411,7 @@
       <c r="E141" t="s">
         <v>89</v>
       </c>
-      <c r="F141" s="1">
+      <c r="F141" s="2">
         <v>3908.18</v>
       </c>
       <c r="G141" t="s">
@@ -7445,7 +7446,7 @@
       <c r="E142" t="s">
         <v>89</v>
       </c>
-      <c r="F142" s="1">
+      <c r="F142" s="2">
         <v>3895.56</v>
       </c>
       <c r="G142" t="s">
@@ -7480,7 +7481,7 @@
       <c r="E143" t="s">
         <v>89</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F143" s="2">
         <v>1247</v>
       </c>
       <c r="G143" t="s">
@@ -7515,7 +7516,7 @@
       <c r="E144" t="s">
         <v>89</v>
       </c>
-      <c r="F144" s="1">
+      <c r="F144" s="2">
         <v>5000</v>
       </c>
       <c r="G144" t="s">
@@ -7550,7 +7551,7 @@
       <c r="E145" t="s">
         <v>89</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F145" s="2">
         <v>5541.77</v>
       </c>
       <c r="G145" t="s">
@@ -7585,7 +7586,7 @@
       <c r="E146" t="s">
         <v>89</v>
       </c>
-      <c r="F146" s="1">
+      <c r="F146" s="2">
         <v>5304.91</v>
       </c>
       <c r="G146" t="s">
@@ -7620,7 +7621,7 @@
       <c r="E147" t="s">
         <v>89</v>
       </c>
-      <c r="F147" s="1">
+      <c r="F147" s="2">
         <v>6196.18</v>
       </c>
       <c r="G147" t="s">
@@ -7655,7 +7656,7 @@
       <c r="E148" t="s">
         <v>225</v>
       </c>
-      <c r="F148" s="1">
+      <c r="F148" s="2">
         <v>1990</v>
       </c>
       <c r="G148" t="s">
@@ -7690,7 +7691,7 @@
       <c r="E149" t="s">
         <v>89</v>
       </c>
-      <c r="F149" s="1">
+      <c r="F149" s="2">
         <v>1580.4</v>
       </c>
       <c r="G149" t="s">
@@ -7725,7 +7726,7 @@
       <c r="E150" t="s">
         <v>89</v>
       </c>
-      <c r="F150" s="1">
+      <c r="F150" s="2">
         <v>1562.16</v>
       </c>
       <c r="G150" t="s">
@@ -7760,7 +7761,7 @@
       <c r="E151" t="s">
         <v>89</v>
       </c>
-      <c r="F151" s="1">
+      <c r="F151" s="2">
         <v>1576.74</v>
       </c>
       <c r="G151" t="s">
@@ -7795,7 +7796,7 @@
       <c r="E152" t="s">
         <v>89</v>
       </c>
-      <c r="F152" s="1">
+      <c r="F152" s="2">
         <v>1645.59</v>
       </c>
       <c r="G152" t="s">
@@ -7830,7 +7831,7 @@
       <c r="E153" t="s">
         <v>89</v>
       </c>
-      <c r="F153" s="1">
+      <c r="F153" s="2">
         <v>1671.46</v>
       </c>
       <c r="G153" t="s">
@@ -7865,7 +7866,7 @@
       <c r="E154" t="s">
         <v>89</v>
       </c>
-      <c r="F154" s="1">
+      <c r="F154" s="2">
         <v>1764.89</v>
       </c>
       <c r="G154" t="s">
@@ -7900,7 +7901,7 @@
       <c r="E155" t="s">
         <v>89</v>
       </c>
-      <c r="F155" s="1">
+      <c r="F155" s="2">
         <v>1827.47</v>
       </c>
       <c r="G155" t="s">
@@ -7935,7 +7936,7 @@
       <c r="E156" t="s">
         <v>89</v>
       </c>
-      <c r="F156" s="1">
+      <c r="F156" s="2">
         <v>1698.53</v>
       </c>
       <c r="G156" t="s">
@@ -7970,7 +7971,7 @@
       <c r="E157" t="s">
         <v>89</v>
       </c>
-      <c r="F157" s="1">
+      <c r="F157" s="2">
         <v>1722.22</v>
       </c>
       <c r="G157" t="s">
@@ -8005,7 +8006,7 @@
       <c r="E158" t="s">
         <v>89</v>
       </c>
-      <c r="F158" s="1">
+      <c r="F158" s="2">
         <v>1643.34</v>
       </c>
       <c r="G158" t="s">
@@ -8040,7 +8041,7 @@
       <c r="E159" t="s">
         <v>89</v>
       </c>
-      <c r="F159" s="1">
+      <c r="F159" s="2">
         <v>1721.61</v>
       </c>
       <c r="G159" t="s">
@@ -8075,7 +8076,7 @@
       <c r="E160" t="s">
         <v>89</v>
       </c>
-      <c r="F160" s="1">
+      <c r="F160" s="2">
         <v>1791.02</v>
       </c>
       <c r="G160" t="s">
@@ -8110,7 +8111,7 @@
       <c r="E161" t="s">
         <v>89</v>
       </c>
-      <c r="F161" s="1">
+      <c r="F161" s="2">
         <v>1864.81</v>
       </c>
       <c r="G161" t="s">
@@ -8145,7 +8146,7 @@
       <c r="E162" t="s">
         <v>89</v>
       </c>
-      <c r="F162" s="1">
+      <c r="F162" s="2">
         <v>1704.9</v>
       </c>
       <c r="G162" t="s">
@@ -8180,7 +8181,7 @@
       <c r="E163" t="s">
         <v>89</v>
       </c>
-      <c r="F163" s="1">
+      <c r="F163" s="2">
         <v>1616.64</v>
       </c>
       <c r="G163" t="s">
@@ -8215,7 +8216,7 @@
       <c r="E164" t="s">
         <v>89</v>
       </c>
-      <c r="F164" s="1">
+      <c r="F164" s="2">
         <v>1594.18</v>
       </c>
       <c r="G164" t="s">
@@ -8250,7 +8251,7 @@
       <c r="E165" t="s">
         <v>89</v>
       </c>
-      <c r="F165" s="1">
+      <c r="F165" s="2">
         <v>1683.95</v>
       </c>
       <c r="G165" t="s">
@@ -8285,7 +8286,7 @@
       <c r="E166" t="s">
         <v>89</v>
       </c>
-      <c r="F166" s="1">
+      <c r="F166" s="2">
         <v>1910.7</v>
       </c>
       <c r="G166" t="s">
@@ -8320,7 +8321,7 @@
       <c r="E167" t="s">
         <v>89</v>
       </c>
-      <c r="F167" s="1">
+      <c r="F167" s="2">
         <v>1783.11</v>
       </c>
       <c r="G167" t="s">
@@ -8355,7 +8356,7 @@
       <c r="E168" t="s">
         <v>89</v>
       </c>
-      <c r="F168" s="1">
+      <c r="F168" s="2">
         <v>1748.93</v>
       </c>
       <c r="G168" t="s">
@@ -8390,7 +8391,7 @@
       <c r="E169" t="s">
         <v>89</v>
       </c>
-      <c r="F169" s="1">
+      <c r="F169" s="2">
         <v>1745.61</v>
       </c>
       <c r="G169" t="s">
@@ -8425,7 +8426,7 @@
       <c r="E170" t="s">
         <v>89</v>
       </c>
-      <c r="F170" s="1">
+      <c r="F170" s="2">
         <v>1576.47</v>
       </c>
       <c r="G170" t="s">
@@ -8460,7 +8461,7 @@
       <c r="E171" t="s">
         <v>89</v>
       </c>
-      <c r="F171" s="1">
+      <c r="F171" s="2">
         <v>1944.47</v>
       </c>
       <c r="G171" t="s">
@@ -8495,7 +8496,7 @@
       <c r="E172" t="s">
         <v>89</v>
       </c>
-      <c r="F172" s="1">
+      <c r="F172" s="2">
         <v>2019.42</v>
       </c>
       <c r="G172" t="s">
@@ -8530,7 +8531,7 @@
       <c r="E173" t="s">
         <v>89</v>
       </c>
-      <c r="F173" s="1">
+      <c r="F173" s="2">
         <v>1549.86</v>
       </c>
       <c r="G173" t="s">
@@ -8565,7 +8566,7 @@
       <c r="E174" t="s">
         <v>89</v>
       </c>
-      <c r="F174" s="1">
+      <c r="F174" s="2">
         <v>1974</v>
       </c>
       <c r="G174" t="s">
@@ -8600,7 +8601,7 @@
       <c r="E175" t="s">
         <v>89</v>
       </c>
-      <c r="F175" s="1">
+      <c r="F175" s="2">
         <v>1605.05</v>
       </c>
       <c r="G175" t="s">
@@ -8635,7 +8636,7 @@
       <c r="E176" t="s">
         <v>89</v>
       </c>
-      <c r="F176" s="1">
+      <c r="F176" s="2">
         <v>1428.71</v>
       </c>
       <c r="G176" t="s">
@@ -8670,7 +8671,7 @@
       <c r="E177" t="s">
         <v>89</v>
       </c>
-      <c r="F177" s="1">
+      <c r="F177" s="2">
         <v>1440.12</v>
       </c>
       <c r="G177" t="s">
@@ -8705,7 +8706,7 @@
       <c r="E178" t="s">
         <v>89</v>
       </c>
-      <c r="F178" s="1">
+      <c r="F178" s="2">
         <v>1510.28</v>
       </c>
       <c r="G178" t="s">
@@ -8740,7 +8741,7 @@
       <c r="E179" t="s">
         <v>89</v>
       </c>
-      <c r="F179" s="1">
+      <c r="F179" s="2">
         <v>1472.48</v>
       </c>
       <c r="G179" t="s">
@@ -8775,7 +8776,7 @@
       <c r="E180" t="s">
         <v>89</v>
       </c>
-      <c r="F180" s="1">
+      <c r="F180" s="2">
         <v>1466.58</v>
       </c>
       <c r="G180" t="s">
@@ -8810,7 +8811,7 @@
       <c r="E181" t="s">
         <v>89</v>
       </c>
-      <c r="F181" s="1">
+      <c r="F181" s="2">
         <v>1502.35</v>
       </c>
       <c r="G181" t="s">
@@ -8845,7 +8846,7 @@
       <c r="E182" t="s">
         <v>89</v>
       </c>
-      <c r="F182" s="1">
+      <c r="F182" s="2">
         <v>1543.31</v>
       </c>
       <c r="G182" t="s">
@@ -8880,7 +8881,7 @@
       <c r="E183" t="s">
         <v>89</v>
       </c>
-      <c r="F183" s="1">
+      <c r="F183" s="2">
         <v>1471.45</v>
       </c>
       <c r="G183" t="s">
@@ -8915,7 +8916,7 @@
       <c r="E184" t="s">
         <v>89</v>
       </c>
-      <c r="F184" s="1">
+      <c r="F184" s="2">
         <v>1521.42</v>
       </c>
       <c r="G184" t="s">
@@ -8950,7 +8951,7 @@
       <c r="E185" t="s">
         <v>89</v>
       </c>
-      <c r="F185" s="1">
+      <c r="F185" s="2">
         <v>1549.34</v>
       </c>
       <c r="G185" t="s">
@@ -8985,7 +8986,7 @@
       <c r="E186" t="s">
         <v>89</v>
       </c>
-      <c r="F186" s="1">
+      <c r="F186" s="2">
         <v>1540.87</v>
       </c>
       <c r="G186" t="s">
@@ -9020,7 +9021,7 @@
       <c r="E187" t="s">
         <v>89</v>
       </c>
-      <c r="F187" s="1">
+      <c r="F187" s="2">
         <v>1534.24</v>
       </c>
       <c r="G187" t="s">
@@ -9055,7 +9056,7 @@
       <c r="E188" t="s">
         <v>89</v>
       </c>
-      <c r="F188" s="1">
+      <c r="F188" s="2">
         <v>1619.63</v>
       </c>
       <c r="G188" t="s">
@@ -9090,7 +9091,7 @@
       <c r="E189" t="s">
         <v>89</v>
       </c>
-      <c r="F189" s="1">
+      <c r="F189" s="2">
         <v>1481.4</v>
       </c>
       <c r="G189" t="s">
@@ -9125,7 +9126,7 @@
       <c r="E190" t="s">
         <v>89</v>
       </c>
-      <c r="F190" s="1">
+      <c r="F190" s="2">
         <v>1457.67</v>
       </c>
       <c r="G190" t="s">
@@ -9160,7 +9161,7 @@
       <c r="E191" t="s">
         <v>89</v>
       </c>
-      <c r="F191" s="1">
+      <c r="F191" s="2">
         <v>1491.37</v>
       </c>
       <c r="G191" t="s">
@@ -9195,7 +9196,7 @@
       <c r="E192" t="s">
         <v>89</v>
       </c>
-      <c r="F192" s="1">
+      <c r="F192" s="2">
         <v>1456.56</v>
       </c>
       <c r="G192" t="s">
@@ -9230,7 +9231,7 @@
       <c r="E193" t="s">
         <v>89</v>
       </c>
-      <c r="F193" s="1">
+      <c r="F193" s="2">
         <v>1675.82</v>
       </c>
       <c r="G193" t="s">
@@ -9265,7 +9266,7 @@
       <c r="E194" t="s">
         <v>89</v>
       </c>
-      <c r="F194" s="1">
+      <c r="F194" s="2">
         <v>1564</v>
       </c>
       <c r="G194" t="s">
@@ -9300,7 +9301,7 @@
       <c r="E195" t="s">
         <v>89</v>
       </c>
-      <c r="F195" s="1">
+      <c r="F195" s="2">
         <v>1479.33</v>
       </c>
       <c r="G195" t="s">
@@ -9335,7 +9336,7 @@
       <c r="E196" t="s">
         <v>89</v>
       </c>
-      <c r="F196" s="1">
+      <c r="F196" s="2">
         <v>1533.79</v>
       </c>
       <c r="G196" t="s">
@@ -9370,7 +9371,7 @@
       <c r="E197" t="s">
         <v>89</v>
       </c>
-      <c r="F197" s="1">
+      <c r="F197" s="2">
         <v>1483.11</v>
       </c>
       <c r="G197" t="s">
@@ -9405,7 +9406,7 @@
       <c r="E198" t="s">
         <v>89</v>
       </c>
-      <c r="F198" s="1">
+      <c r="F198" s="2">
         <v>1602.37</v>
       </c>
       <c r="G198" t="s">
@@ -9440,7 +9441,7 @@
       <c r="E199" t="s">
         <v>89</v>
       </c>
-      <c r="F199" s="1">
+      <c r="F199" s="2">
         <v>1684.32</v>
       </c>
       <c r="G199" t="s">
@@ -9475,7 +9476,7 @@
       <c r="E200" t="s">
         <v>89</v>
       </c>
-      <c r="F200" s="1">
+      <c r="F200" s="2">
         <v>1480.21</v>
       </c>
       <c r="G200" t="s">
@@ -9510,7 +9511,7 @@
       <c r="E201" t="s">
         <v>89</v>
       </c>
-      <c r="F201" s="1">
+      <c r="F201" s="2">
         <v>1649.72</v>
       </c>
       <c r="G201" t="s">
@@ -9545,7 +9546,7 @@
       <c r="E202" t="s">
         <v>89</v>
       </c>
-      <c r="F202" s="1">
+      <c r="F202" s="2">
         <v>1489.02</v>
       </c>
       <c r="G202" t="s">
@@ -9580,7 +9581,7 @@
       <c r="E203" t="s">
         <v>31</v>
       </c>
-      <c r="F203" s="1">
+      <c r="F203" s="2">
         <v>200</v>
       </c>
       <c r="G203" t="s">
@@ -9615,7 +9616,7 @@
       <c r="E204" t="s">
         <v>31</v>
       </c>
-      <c r="F204" s="1">
+      <c r="F204" s="2">
         <v>130</v>
       </c>
       <c r="G204" t="s">
@@ -9647,7 +9648,7 @@
       <c r="E205" t="s">
         <v>31</v>
       </c>
-      <c r="F205" s="1">
+      <c r="F205" s="2">
         <v>145</v>
       </c>
       <c r="G205" t="s">
@@ -9682,7 +9683,7 @@
       <c r="E206" t="s">
         <v>89</v>
       </c>
-      <c r="F206" s="1">
+      <c r="F206" s="2">
         <v>1843.06</v>
       </c>
       <c r="G206" t="s">
@@ -9717,7 +9718,7 @@
       <c r="E207" t="s">
         <v>89</v>
       </c>
-      <c r="F207" s="1">
+      <c r="F207" s="2">
         <v>2118.46</v>
       </c>
       <c r="G207" t="s">
@@ -9752,7 +9753,7 @@
       <c r="E208" t="s">
         <v>89</v>
       </c>
-      <c r="F208" s="1">
+      <c r="F208" s="2">
         <v>2023.87</v>
       </c>
       <c r="G208" t="s">
@@ -9787,7 +9788,7 @@
       <c r="E209" t="s">
         <v>89</v>
       </c>
-      <c r="F209" s="1">
+      <c r="F209" s="2">
         <v>1901.37</v>
       </c>
       <c r="G209" t="s">
@@ -9822,7 +9823,7 @@
       <c r="E210" t="s">
         <v>89</v>
       </c>
-      <c r="F210" s="1">
+      <c r="F210" s="2">
         <v>1897.33</v>
       </c>
       <c r="G210" t="s">
@@ -9857,7 +9858,7 @@
       <c r="E211" t="s">
         <v>89</v>
       </c>
-      <c r="F211" s="1">
+      <c r="F211" s="2">
         <v>2389.67</v>
       </c>
       <c r="G211" t="s">
@@ -9892,7 +9893,7 @@
       <c r="E212" t="s">
         <v>89</v>
       </c>
-      <c r="F212" s="1">
+      <c r="F212" s="2">
         <v>2612.96</v>
       </c>
       <c r="G212" t="s">
@@ -9927,7 +9928,7 @@
       <c r="E213" t="s">
         <v>89</v>
       </c>
-      <c r="F213" s="1">
+      <c r="F213" s="2">
         <v>2013.76</v>
       </c>
       <c r="G213" t="s">
@@ -9962,7 +9963,7 @@
       <c r="E214" t="s">
         <v>89</v>
       </c>
-      <c r="F214" s="1">
+      <c r="F214" s="2">
         <v>1963.87</v>
       </c>
       <c r="G214" t="s">
@@ -9997,7 +9998,7 @@
       <c r="E215" t="s">
         <v>89</v>
       </c>
-      <c r="F215" s="1">
+      <c r="F215" s="2">
         <v>2082.75</v>
       </c>
       <c r="G215" t="s">
@@ -10032,7 +10033,7 @@
       <c r="E216" t="s">
         <v>89</v>
       </c>
-      <c r="F216" s="1">
+      <c r="F216" s="2">
         <v>2000.47</v>
       </c>
       <c r="G216" t="s">
@@ -10067,7 +10068,7 @@
       <c r="E217" t="s">
         <v>89</v>
       </c>
-      <c r="F217" s="1">
+      <c r="F217" s="2">
         <v>2041.39</v>
       </c>
       <c r="G217" t="s">
@@ -10102,7 +10103,7 @@
       <c r="E218" t="s">
         <v>89</v>
       </c>
-      <c r="F218" s="1">
+      <c r="F218" s="2">
         <v>2177.67</v>
       </c>
       <c r="G218" t="s">
@@ -10137,7 +10138,7 @@
       <c r="E219" t="s">
         <v>89</v>
       </c>
-      <c r="F219" s="1">
+      <c r="F219" s="2">
         <v>1947.31</v>
       </c>
       <c r="G219" t="s">
@@ -10172,7 +10173,7 @@
       <c r="E220" t="s">
         <v>89</v>
       </c>
-      <c r="F220" s="1">
+      <c r="F220" s="2">
         <v>1789.79</v>
       </c>
       <c r="G220" t="s">
@@ -10207,7 +10208,7 @@
       <c r="E221" t="s">
         <v>89</v>
       </c>
-      <c r="F221" s="1">
+      <c r="F221" s="2">
         <v>1927.69</v>
       </c>
       <c r="G221" t="s">
@@ -10242,7 +10243,7 @@
       <c r="E222" t="s">
         <v>89</v>
       </c>
-      <c r="F222" s="1">
+      <c r="F222" s="2">
         <v>1743.4</v>
       </c>
       <c r="G222" t="s">
@@ -10277,7 +10278,7 @@
       <c r="E223" t="s">
         <v>89</v>
       </c>
-      <c r="F223" s="1">
+      <c r="F223" s="2">
         <v>2167.98</v>
       </c>
       <c r="G223" t="s">
@@ -10312,7 +10313,7 @@
       <c r="E224" t="s">
         <v>89</v>
       </c>
-      <c r="F224" s="1">
+      <c r="F224" s="2">
         <v>2253.5700000000002</v>
       </c>
       <c r="G224" t="s">
@@ -10347,7 +10348,7 @@
       <c r="E225" t="s">
         <v>89</v>
       </c>
-      <c r="F225" s="1">
+      <c r="F225" s="2">
         <v>1918.2</v>
       </c>
       <c r="G225" t="s">
@@ -10382,7 +10383,7 @@
       <c r="E226" t="s">
         <v>89</v>
       </c>
-      <c r="F226" s="1">
+      <c r="F226" s="2">
         <v>1848.01</v>
       </c>
       <c r="G226" t="s">
@@ -10417,7 +10418,7 @@
       <c r="E227" t="s">
         <v>89</v>
       </c>
-      <c r="F227" s="1">
+      <c r="F227" s="2">
         <v>1859.94</v>
       </c>
       <c r="G227" t="s">
@@ -10452,7 +10453,7 @@
       <c r="E228" t="s">
         <v>89</v>
       </c>
-      <c r="F228" s="1">
+      <c r="F228" s="2">
         <v>2159.21</v>
       </c>
       <c r="G228" t="s">
@@ -10487,7 +10488,7 @@
       <c r="E229" t="s">
         <v>89</v>
       </c>
-      <c r="F229" s="1">
+      <c r="F229" s="2">
         <v>2373.86</v>
       </c>
       <c r="G229" t="s">
@@ -10522,7 +10523,7 @@
       <c r="E230" t="s">
         <v>89</v>
       </c>
-      <c r="F230" s="1">
+      <c r="F230" s="2">
         <v>1753.83</v>
       </c>
       <c r="G230" t="s">
@@ -10557,7 +10558,7 @@
       <c r="E231" t="s">
         <v>89</v>
       </c>
-      <c r="F231" s="1">
+      <c r="F231" s="2">
         <v>2385.89</v>
       </c>
       <c r="G231" t="s">
@@ -10592,7 +10593,7 @@
       <c r="E232" t="s">
         <v>89</v>
       </c>
-      <c r="F232" s="1">
+      <c r="F232" s="2">
         <v>1886.13</v>
       </c>
       <c r="G232" t="s">
@@ -10627,7 +10628,7 @@
       <c r="E233" t="s">
         <v>31</v>
       </c>
-      <c r="F233" s="1">
+      <c r="F233" s="2">
         <v>150</v>
       </c>
       <c r="G233" t="s">
@@ -10662,7 +10663,7 @@
       <c r="E234" t="s">
         <v>89</v>
       </c>
-      <c r="F234" s="1">
+      <c r="F234" s="2">
         <v>2821.54</v>
       </c>
       <c r="G234" t="s">
@@ -10697,7 +10698,7 @@
       <c r="E235" t="s">
         <v>89</v>
       </c>
-      <c r="F235" s="1">
+      <c r="F235" s="2">
         <v>3019.4</v>
       </c>
       <c r="G235" t="s">
@@ -10732,7 +10733,7 @@
       <c r="E236" t="s">
         <v>89</v>
       </c>
-      <c r="F236" s="1">
+      <c r="F236" s="2">
         <v>3985.56</v>
       </c>
       <c r="G236" t="s">
@@ -10767,7 +10768,7 @@
       <c r="E237" t="s">
         <v>89</v>
       </c>
-      <c r="F237" s="1">
+      <c r="F237" s="2">
         <v>2979.16</v>
       </c>
       <c r="G237" t="s">
@@ -10802,7 +10803,7 @@
       <c r="E238" t="s">
         <v>89</v>
       </c>
-      <c r="F238" s="1">
+      <c r="F238" s="2">
         <v>3255.27</v>
       </c>
       <c r="G238" t="s">
@@ -10837,7 +10838,7 @@
       <c r="E239" t="s">
         <v>89</v>
       </c>
-      <c r="F239" s="1">
+      <c r="F239" s="2">
         <v>2987.67</v>
       </c>
       <c r="G239" t="s">
@@ -10872,7 +10873,7 @@
       <c r="E240" t="s">
         <v>89</v>
       </c>
-      <c r="F240" s="1">
+      <c r="F240" s="2">
         <v>3083.88</v>
       </c>
       <c r="G240" t="s">
@@ -10907,7 +10908,7 @@
       <c r="E241" t="s">
         <v>89</v>
       </c>
-      <c r="F241" s="1">
+      <c r="F241" s="2">
         <v>3516.68</v>
       </c>
       <c r="G241" t="s">
@@ -10942,7 +10943,7 @@
       <c r="E242" t="s">
         <v>89</v>
       </c>
-      <c r="F242" s="1">
+      <c r="F242" s="2">
         <v>3049.41</v>
       </c>
       <c r="G242" t="s">
@@ -10977,7 +10978,7 @@
       <c r="E243" t="s">
         <v>89</v>
       </c>
-      <c r="F243" s="1">
+      <c r="F243" s="2">
         <v>3049.41</v>
       </c>
       <c r="G243" t="s">
@@ -11012,7 +11013,7 @@
       <c r="E244" t="s">
         <v>89</v>
       </c>
-      <c r="F244" s="1">
+      <c r="F244" s="2">
         <v>3756.52</v>
       </c>
       <c r="G244" t="s">
@@ -11047,7 +11048,7 @@
       <c r="E245" t="s">
         <v>89</v>
       </c>
-      <c r="F245" s="1">
+      <c r="F245" s="2">
         <v>3432.25</v>
       </c>
       <c r="G245" t="s">
@@ -11082,7 +11083,7 @@
       <c r="E246" t="s">
         <v>89</v>
       </c>
-      <c r="F246" s="1">
+      <c r="F246" s="2">
         <v>3281.54</v>
       </c>
       <c r="G246" t="s">
@@ -11117,7 +11118,7 @@
       <c r="E247" t="s">
         <v>89</v>
       </c>
-      <c r="F247" s="1">
+      <c r="F247" s="2">
         <v>3549.43</v>
       </c>
       <c r="G247" t="s">
@@ -11152,7 +11153,7 @@
       <c r="E248" t="s">
         <v>89</v>
       </c>
-      <c r="F248" s="1">
+      <c r="F248" s="2">
         <v>4095.09</v>
       </c>
       <c r="G248" t="s">
@@ -11187,7 +11188,7 @@
       <c r="E249" t="s">
         <v>89</v>
       </c>
-      <c r="F249" s="1">
+      <c r="F249" s="2">
         <v>3200.51</v>
       </c>
       <c r="G249" t="s">
@@ -11222,7 +11223,7 @@
       <c r="E250" t="s">
         <v>89</v>
       </c>
-      <c r="F250" s="1">
+      <c r="F250" s="2">
         <v>3668.26</v>
       </c>
       <c r="G250" t="s">
@@ -11257,7 +11258,7 @@
       <c r="E251" t="s">
         <v>89</v>
       </c>
-      <c r="F251" s="1">
+      <c r="F251" s="2">
         <v>3491.53</v>
       </c>
       <c r="G251" t="s">
@@ -11292,7 +11293,7 @@
       <c r="E252" t="s">
         <v>89</v>
       </c>
-      <c r="F252" s="1">
+      <c r="F252" s="2">
         <v>3375.72</v>
       </c>
       <c r="G252" t="s">
@@ -11327,7 +11328,7 @@
       <c r="E253" t="s">
         <v>89</v>
       </c>
-      <c r="F253" s="1">
+      <c r="F253" s="2">
         <v>3666.26</v>
       </c>
       <c r="G253" t="s">
@@ -11362,7 +11363,7 @@
       <c r="E254" t="s">
         <v>89</v>
       </c>
-      <c r="F254" s="1">
+      <c r="F254" s="2">
         <v>4090.91</v>
       </c>
       <c r="G254" t="s">
@@ -11397,7 +11398,7 @@
       <c r="E255" t="s">
         <v>89</v>
       </c>
-      <c r="F255" s="1">
+      <c r="F255" s="2">
         <v>3112.06</v>
       </c>
       <c r="G255" t="s">
@@ -11432,7 +11433,7 @@
       <c r="E256" t="s">
         <v>89</v>
       </c>
-      <c r="F256" s="1">
+      <c r="F256" s="2">
         <v>3863.07</v>
       </c>
       <c r="G256" t="s">
@@ -11467,7 +11468,7 @@
       <c r="E257" t="s">
         <v>89</v>
       </c>
-      <c r="F257" s="1">
+      <c r="F257" s="2">
         <v>4699.37</v>
       </c>
       <c r="G257" t="s">
@@ -11502,7 +11503,7 @@
       <c r="E258" t="s">
         <v>89</v>
       </c>
-      <c r="F258" s="1">
+      <c r="F258" s="2">
         <v>3963.88</v>
       </c>
       <c r="G258" t="s">
@@ -11537,7 +11538,7 @@
       <c r="E259" t="s">
         <v>89</v>
       </c>
-      <c r="F259" s="1">
+      <c r="F259" s="2">
         <v>3722.11</v>
       </c>
       <c r="G259" t="s">
@@ -11572,7 +11573,7 @@
       <c r="E260" t="s">
         <v>89</v>
       </c>
-      <c r="F260" s="1">
+      <c r="F260" s="2">
         <v>5328.35</v>
       </c>
       <c r="G260" t="s">
@@ -11607,7 +11608,7 @@
       <c r="E261" t="s">
         <v>89</v>
       </c>
-      <c r="F261" s="1">
+      <c r="F261" s="2">
         <v>2273.06</v>
       </c>
       <c r="G261" t="s">
@@ -11642,7 +11643,7 @@
       <c r="E262" t="s">
         <v>89</v>
       </c>
-      <c r="F262" s="1">
+      <c r="F262" s="2">
         <v>2455.19</v>
       </c>
       <c r="G262" t="s">
@@ -11677,7 +11678,7 @@
       <c r="E263" t="s">
         <v>89</v>
       </c>
-      <c r="F263" s="1">
+      <c r="F263" s="2">
         <v>3100.79</v>
       </c>
       <c r="G263" t="s">
@@ -11712,7 +11713,7 @@
       <c r="E264" t="s">
         <v>89</v>
       </c>
-      <c r="F264" s="1">
+      <c r="F264" s="2">
         <v>2511.42</v>
       </c>
       <c r="G264" t="s">
@@ -11747,7 +11748,7 @@
       <c r="E265" t="s">
         <v>89</v>
       </c>
-      <c r="F265" s="1">
+      <c r="F265" s="2">
         <v>3422.44</v>
       </c>
       <c r="G265" t="s">
@@ -11782,7 +11783,7 @@
       <c r="E266" t="s">
         <v>89</v>
       </c>
-      <c r="F266" s="1">
+      <c r="F266" s="2">
         <v>3838.59</v>
       </c>
       <c r="G266" t="s">
@@ -11817,7 +11818,7 @@
       <c r="E267" t="s">
         <v>89</v>
       </c>
-      <c r="F267" s="1">
+      <c r="F267" s="2">
         <v>3376.74</v>
       </c>
       <c r="G267" t="s">
@@ -11852,7 +11853,7 @@
       <c r="E268" t="s">
         <v>89</v>
       </c>
-      <c r="F268" s="1">
+      <c r="F268" s="2">
         <v>4527.37</v>
       </c>
       <c r="G268" t="s">
@@ -11887,7 +11888,7 @@
       <c r="E269" t="s">
         <v>89</v>
       </c>
-      <c r="F269" s="1">
+      <c r="F269" s="2">
         <v>2041.08</v>
       </c>
       <c r="G269" t="s">
@@ -11922,7 +11923,7 @@
       <c r="E270" t="s">
         <v>89</v>
       </c>
-      <c r="F270" s="1">
+      <c r="F270" s="2">
         <v>2479.7199999999998</v>
       </c>
       <c r="G270" t="s">
@@ -11957,7 +11958,7 @@
       <c r="E271" t="s">
         <v>89</v>
       </c>
-      <c r="F271" s="1">
+      <c r="F271" s="2">
         <v>2101.75</v>
       </c>
       <c r="G271" t="s">
@@ -11992,7 +11993,7 @@
       <c r="E272" t="s">
         <v>89</v>
       </c>
-      <c r="F272" s="1">
+      <c r="F272" s="2">
         <v>3349.5</v>
       </c>
       <c r="G272" t="s">
@@ -12027,7 +12028,7 @@
       <c r="E273" t="s">
         <v>89</v>
       </c>
-      <c r="F273" s="1">
+      <c r="F273" s="2">
         <v>1979.54</v>
       </c>
       <c r="G273" t="s">
@@ -12062,7 +12063,7 @@
       <c r="E274" t="s">
         <v>89</v>
       </c>
-      <c r="F274" s="1">
+      <c r="F274" s="2">
         <v>2549.4899999999998</v>
       </c>
       <c r="G274" t="s">
@@ -12097,7 +12098,7 @@
       <c r="E275" t="s">
         <v>89</v>
       </c>
-      <c r="F275" s="1">
+      <c r="F275" s="2">
         <v>1942.75</v>
       </c>
       <c r="G275" t="s">
@@ -12132,7 +12133,7 @@
       <c r="E276" t="s">
         <v>89</v>
       </c>
-      <c r="F276" s="1">
+      <c r="F276" s="2">
         <v>1770.49</v>
       </c>
       <c r="G276" t="s">
@@ -12167,7 +12168,7 @@
       <c r="E277" t="s">
         <v>89</v>
       </c>
-      <c r="F277" s="1">
+      <c r="F277" s="2">
         <v>2799.91</v>
       </c>
       <c r="G277" t="s">
@@ -12202,7 +12203,7 @@
       <c r="E278" t="s">
         <v>89</v>
       </c>
-      <c r="F278" s="1">
+      <c r="F278" s="2">
         <v>2089.16</v>
       </c>
       <c r="G278" t="s">
@@ -12237,7 +12238,7 @@
       <c r="E279" t="s">
         <v>89</v>
       </c>
-      <c r="F279" s="1">
+      <c r="F279" s="2">
         <v>2361.09</v>
       </c>
       <c r="G279" t="s">
@@ -12272,7 +12273,7 @@
       <c r="E280" t="s">
         <v>89</v>
       </c>
-      <c r="F280" s="1">
+      <c r="F280" s="2">
         <v>2704.19</v>
       </c>
       <c r="G280" t="s">
@@ -12307,7 +12308,7 @@
       <c r="E281" t="s">
         <v>31</v>
       </c>
-      <c r="F281" s="1">
+      <c r="F281" s="2">
         <v>222</v>
       </c>
       <c r="G281" t="s">
@@ -12342,7 +12343,7 @@
       <c r="E282" t="s">
         <v>89</v>
       </c>
-      <c r="F282" s="1">
+      <c r="F282" s="2">
         <v>1611.78</v>
       </c>
       <c r="G282" t="s">
@@ -12377,7 +12378,7 @@
       <c r="E283" t="s">
         <v>89</v>
       </c>
-      <c r="F283" s="1">
+      <c r="F283" s="2">
         <v>1569.29</v>
       </c>
       <c r="G283" t="s">
@@ -12412,7 +12413,7 @@
       <c r="E284" t="s">
         <v>89</v>
       </c>
-      <c r="F284" s="1">
+      <c r="F284" s="2">
         <v>2221.5300000000002</v>
       </c>
       <c r="G284" t="s">
@@ -12447,7 +12448,7 @@
       <c r="E285" t="s">
         <v>89</v>
       </c>
-      <c r="F285" s="1">
+      <c r="F285" s="2">
         <v>1617.55</v>
       </c>
       <c r="G285" t="s">
@@ -12482,7 +12483,7 @@
       <c r="E286" t="s">
         <v>89</v>
       </c>
-      <c r="F286" s="1">
+      <c r="F286" s="2">
         <v>1990.2</v>
       </c>
       <c r="G286" t="s">
@@ -12517,7 +12518,7 @@
       <c r="E287" t="s">
         <v>89</v>
       </c>
-      <c r="F287" s="1">
+      <c r="F287" s="2">
         <v>1891.04</v>
       </c>
       <c r="G287" t="s">
@@ -12552,7 +12553,7 @@
       <c r="E288" t="s">
         <v>89</v>
       </c>
-      <c r="F288" s="1">
+      <c r="F288" s="2">
         <v>2179.77</v>
       </c>
       <c r="G288" t="s">
@@ -12587,7 +12588,7 @@
       <c r="E289" t="s">
         <v>31</v>
       </c>
-      <c r="F289" s="1">
+      <c r="F289" s="2">
         <v>164</v>
       </c>
       <c r="G289" t="s">
@@ -12622,7 +12623,7 @@
       <c r="E290" t="s">
         <v>89</v>
       </c>
-      <c r="F290" s="1">
+      <c r="F290" s="2">
         <v>1814.35</v>
       </c>
       <c r="G290" t="s">
@@ -12657,7 +12658,7 @@
       <c r="E291" t="s">
         <v>89</v>
       </c>
-      <c r="F291" s="1">
+      <c r="F291" s="2">
         <v>2500</v>
       </c>
       <c r="G291" t="s">
@@ -12692,7 +12693,7 @@
       <c r="E292" t="s">
         <v>31</v>
       </c>
-      <c r="F292" s="1">
+      <c r="F292" s="2">
         <v>350</v>
       </c>
       <c r="G292" t="s">
@@ -12727,7 +12728,7 @@
       <c r="E293" t="s">
         <v>31</v>
       </c>
-      <c r="F293" s="1">
+      <c r="F293" s="2">
         <v>220</v>
       </c>
       <c r="G293" t="s">
@@ -12759,7 +12760,7 @@
       <c r="E294" t="s">
         <v>89</v>
       </c>
-      <c r="F294" s="1">
+      <c r="F294" s="2">
         <v>4207.57</v>
       </c>
       <c r="G294" t="s">
@@ -12794,7 +12795,7 @@
       <c r="E295" t="s">
         <v>31</v>
       </c>
-      <c r="F295" s="1">
+      <c r="F295" s="2">
         <v>680</v>
       </c>
       <c r="G295" t="s">
@@ -12829,7 +12830,7 @@
       <c r="E296" t="s">
         <v>89</v>
       </c>
-      <c r="F296" s="1">
+      <c r="F296" s="2">
         <v>2592.25</v>
       </c>
       <c r="G296" t="s">
@@ -12864,7 +12865,7 @@
       <c r="E297" t="s">
         <v>89</v>
       </c>
-      <c r="F297" s="1">
+      <c r="F297" s="2">
         <v>2846.02</v>
       </c>
       <c r="G297" t="s">
@@ -12899,7 +12900,7 @@
       <c r="E298" t="s">
         <v>89</v>
       </c>
-      <c r="F298" s="1">
+      <c r="F298" s="2">
         <v>3511.6</v>
       </c>
       <c r="G298" t="s">
@@ -12931,7 +12932,7 @@
       <c r="E299" t="s">
         <v>31</v>
       </c>
-      <c r="F299" s="1">
+      <c r="F299" s="2">
         <v>340</v>
       </c>
       <c r="G299" t="s">
@@ -12963,7 +12964,7 @@
       <c r="E300" t="s">
         <v>31</v>
       </c>
-      <c r="F300" s="1">
+      <c r="F300" s="2">
         <v>800</v>
       </c>
       <c r="G300" t="s">
@@ -12995,7 +12996,7 @@
       <c r="E301" t="s">
         <v>31</v>
       </c>
-      <c r="F301" s="1">
+      <c r="F301" s="2">
         <v>414</v>
       </c>
       <c r="G301" t="s">
@@ -13027,7 +13028,7 @@
       <c r="E302" t="s">
         <v>31</v>
       </c>
-      <c r="F302" s="1">
+      <c r="F302" s="2">
         <v>650</v>
       </c>
       <c r="G302" t="s">
@@ -13059,7 +13060,7 @@
       <c r="E303" t="s">
         <v>31</v>
       </c>
-      <c r="F303" s="1">
+      <c r="F303" s="2">
         <v>796.5</v>
       </c>
       <c r="G303" t="s">
@@ -13091,7 +13092,7 @@
       <c r="E304" t="s">
         <v>31</v>
       </c>
-      <c r="F304" s="1">
+      <c r="F304" s="2">
         <v>800</v>
       </c>
       <c r="G304" t="s">
@@ -13123,7 +13124,7 @@
       <c r="E305" t="s">
         <v>31</v>
       </c>
-      <c r="F305" s="1">
+      <c r="F305" s="2">
         <v>600</v>
       </c>
       <c r="G305" t="s">
@@ -13155,7 +13156,7 @@
       <c r="E306" t="s">
         <v>31</v>
       </c>
-      <c r="F306" s="1">
+      <c r="F306" s="2">
         <v>1880</v>
       </c>
       <c r="G306" t="s">
@@ -13190,7 +13191,7 @@
       <c r="E307" t="s">
         <v>89</v>
       </c>
-      <c r="F307" s="1">
+      <c r="F307" s="2">
         <v>3861.1</v>
       </c>
       <c r="G307" t="s">
@@ -13225,7 +13226,7 @@
       <c r="E308" t="s">
         <v>89</v>
       </c>
-      <c r="F308" s="1">
+      <c r="F308" s="2">
         <v>2550.92</v>
       </c>
       <c r="G308" t="s">
@@ -13260,7 +13261,7 @@
       <c r="E309" t="s">
         <v>89</v>
       </c>
-      <c r="F309" s="1">
+      <c r="F309" s="2">
         <v>2295.13</v>
       </c>
       <c r="G309" t="s">
@@ -13295,7 +13296,7 @@
       <c r="E310" t="s">
         <v>89</v>
       </c>
-      <c r="F310" s="1">
+      <c r="F310" s="2">
         <v>3116.6</v>
       </c>
       <c r="G310" t="s">
@@ -13330,7 +13331,7 @@
       <c r="E311" t="s">
         <v>89</v>
       </c>
-      <c r="F311" s="1">
+      <c r="F311" s="2">
         <v>2782.54</v>
       </c>
       <c r="G311" t="s">
@@ -13365,7 +13366,7 @@
       <c r="E312" t="s">
         <v>89</v>
       </c>
-      <c r="F312" s="1">
+      <c r="F312" s="2">
         <v>3258.15</v>
       </c>
       <c r="G312" t="s">
@@ -13400,7 +13401,7 @@
       <c r="E313" t="s">
         <v>89</v>
       </c>
-      <c r="F313" s="1">
+      <c r="F313" s="2">
         <v>3108.95</v>
       </c>
       <c r="G313" t="s">
@@ -13435,7 +13436,7 @@
       <c r="E314" t="s">
         <v>89</v>
       </c>
-      <c r="F314" s="1">
+      <c r="F314" s="2">
         <v>2705.76</v>
       </c>
       <c r="G314" t="s">
@@ -13470,7 +13471,7 @@
       <c r="E315" t="s">
         <v>89</v>
       </c>
-      <c r="F315" s="1">
+      <c r="F315" s="2">
         <v>2879.21</v>
       </c>
       <c r="G315" t="s">
@@ -13505,7 +13506,7 @@
       <c r="E316" t="s">
         <v>89</v>
       </c>
-      <c r="F316" s="1">
+      <c r="F316" s="2">
         <v>1573.38</v>
       </c>
       <c r="G316" t="s">
@@ -13540,7 +13541,7 @@
       <c r="E317" t="s">
         <v>89</v>
       </c>
-      <c r="F317" s="1">
+      <c r="F317" s="2">
         <v>1517.43</v>
       </c>
       <c r="G317" t="s">
@@ -13575,7 +13576,7 @@
       <c r="E318" t="s">
         <v>89</v>
       </c>
-      <c r="F318" s="1">
+      <c r="F318" s="2">
         <v>1526.12</v>
       </c>
       <c r="G318" t="s">
@@ -13610,7 +13611,7 @@
       <c r="E319" t="s">
         <v>89</v>
       </c>
-      <c r="F319" s="1">
+      <c r="F319" s="2">
         <v>1549.12</v>
       </c>
       <c r="G319" t="s">
@@ -13645,7 +13646,7 @@
       <c r="E320" t="s">
         <v>89</v>
       </c>
-      <c r="F320" s="1">
+      <c r="F320" s="2">
         <v>1552.65</v>
       </c>
       <c r="G320" t="s">
@@ -13680,7 +13681,7 @@
       <c r="E321" t="s">
         <v>89</v>
       </c>
-      <c r="F321" s="1">
+      <c r="F321" s="2">
         <v>1579.58</v>
       </c>
       <c r="G321" t="s">
@@ -13715,7 +13716,7 @@
       <c r="E322" t="s">
         <v>89</v>
       </c>
-      <c r="F322" s="1">
+      <c r="F322" s="2">
         <v>1689.48</v>
       </c>
       <c r="G322" t="s">
@@ -13750,7 +13751,7 @@
       <c r="E323" t="s">
         <v>89</v>
       </c>
-      <c r="F323" s="1">
+      <c r="F323" s="2">
         <v>1563.12</v>
       </c>
       <c r="G323" t="s">
@@ -13785,7 +13786,7 @@
       <c r="E324" t="s">
         <v>89</v>
       </c>
-      <c r="F324" s="1">
+      <c r="F324" s="2">
         <v>1588.29</v>
       </c>
       <c r="G324" t="s">
@@ -13820,7 +13821,7 @@
       <c r="E325" t="s">
         <v>89</v>
       </c>
-      <c r="F325" s="1">
+      <c r="F325" s="2">
         <v>1625.69</v>
       </c>
       <c r="G325" t="s">
@@ -13855,7 +13856,7 @@
       <c r="E326" t="s">
         <v>89</v>
       </c>
-      <c r="F326" s="1">
+      <c r="F326" s="2">
         <v>1623.75</v>
       </c>
       <c r="G326" t="s">
@@ -13890,7 +13891,7 @@
       <c r="E327" t="s">
         <v>89</v>
       </c>
-      <c r="F327" s="1">
+      <c r="F327" s="2">
         <v>1615.43</v>
       </c>
       <c r="G327" t="s">
@@ -13925,7 +13926,7 @@
       <c r="E328" t="s">
         <v>89</v>
       </c>
-      <c r="F328" s="1">
+      <c r="F328" s="2">
         <v>1633.48</v>
       </c>
       <c r="G328" t="s">
@@ -13960,7 +13961,7 @@
       <c r="E329" t="s">
         <v>89</v>
       </c>
-      <c r="F329" s="1">
+      <c r="F329" s="2">
         <v>1556.98</v>
       </c>
       <c r="G329" t="s">
@@ -13995,7 +13996,7 @@
       <c r="E330" t="s">
         <v>89</v>
       </c>
-      <c r="F330" s="1">
+      <c r="F330" s="2">
         <v>1546.86</v>
       </c>
       <c r="G330" t="s">
@@ -14030,7 +14031,7 @@
       <c r="E331" t="s">
         <v>89</v>
       </c>
-      <c r="F331" s="1">
+      <c r="F331" s="2">
         <v>1541.97</v>
       </c>
       <c r="G331" t="s">
@@ -14065,7 +14066,7 @@
       <c r="E332" t="s">
         <v>89</v>
       </c>
-      <c r="F332" s="1">
+      <c r="F332" s="2">
         <v>1561.61</v>
       </c>
       <c r="G332" t="s">
@@ -14100,7 +14101,7 @@
       <c r="E333" t="s">
         <v>89</v>
       </c>
-      <c r="F333" s="1">
+      <c r="F333" s="2">
         <v>1756.72</v>
       </c>
       <c r="G333" t="s">
@@ -14135,7 +14136,7 @@
       <c r="E334" t="s">
         <v>89</v>
       </c>
-      <c r="F334" s="1">
+      <c r="F334" s="2">
         <v>1662.31</v>
       </c>
       <c r="G334" t="s">
@@ -14170,7 +14171,7 @@
       <c r="E335" t="s">
         <v>89</v>
       </c>
-      <c r="F335" s="1">
+      <c r="F335" s="2">
         <v>1494.67</v>
       </c>
       <c r="G335" t="s">
@@ -14205,7 +14206,7 @@
       <c r="E336" t="s">
         <v>89</v>
       </c>
-      <c r="F336" s="1">
+      <c r="F336" s="2">
         <v>1585.67</v>
       </c>
       <c r="G336" t="s">
@@ -14240,7 +14241,7 @@
       <c r="E337" t="s">
         <v>89</v>
       </c>
-      <c r="F337" s="1">
+      <c r="F337" s="2">
         <v>1458.11</v>
       </c>
       <c r="G337" t="s">
@@ -14272,7 +14273,7 @@
       <c r="E338" t="s">
         <v>89</v>
       </c>
-      <c r="F338" s="1">
+      <c r="F338" s="2">
         <v>1741.9</v>
       </c>
       <c r="G338" t="s">
@@ -14304,7 +14305,7 @@
       <c r="E339" t="s">
         <v>89</v>
       </c>
-      <c r="F339" s="1">
+      <c r="F339" s="2">
         <v>1896.49</v>
       </c>
       <c r="G339" t="s">
@@ -14336,7 +14337,7 @@
       <c r="E340" t="s">
         <v>89</v>
       </c>
-      <c r="F340" s="1">
+      <c r="F340" s="2">
         <v>1757.93</v>
       </c>
       <c r="G340" t="s">
@@ -14368,7 +14369,7 @@
       <c r="E341" t="s">
         <v>89</v>
       </c>
-      <c r="F341" s="1">
+      <c r="F341" s="2">
         <v>1811.53</v>
       </c>
       <c r="G341" t="s">
@@ -14400,7 +14401,7 @@
       <c r="E342" t="s">
         <v>89</v>
       </c>
-      <c r="F342" s="1">
+      <c r="F342" s="2">
         <v>1545.92</v>
       </c>
       <c r="G342" t="s">
@@ -14432,7 +14433,7 @@
       <c r="E343" t="s">
         <v>31</v>
       </c>
-      <c r="F343" s="1">
+      <c r="F343" s="2">
         <v>350</v>
       </c>
       <c r="G343" t="s">
@@ -14467,7 +14468,7 @@
       <c r="E344" t="s">
         <v>89</v>
       </c>
-      <c r="F344" s="1">
+      <c r="F344" s="2">
         <v>2970.21</v>
       </c>
       <c r="G344" t="s">
@@ -14502,7 +14503,7 @@
       <c r="E345" t="s">
         <v>89</v>
       </c>
-      <c r="F345" s="1">
+      <c r="F345" s="2">
         <v>3056.64</v>
       </c>
       <c r="G345" t="s">
@@ -14537,7 +14538,7 @@
       <c r="E346" t="s">
         <v>89</v>
       </c>
-      <c r="F346" s="1">
+      <c r="F346" s="2">
         <v>2055.54</v>
       </c>
       <c r="G346" t="s">
@@ -14572,7 +14573,7 @@
       <c r="E347" t="s">
         <v>89</v>
       </c>
-      <c r="F347" s="1">
+      <c r="F347" s="2">
         <v>4055.38</v>
       </c>
       <c r="G347" t="s">
@@ -14607,7 +14608,7 @@
       <c r="E348" t="s">
         <v>89</v>
       </c>
-      <c r="F348" s="1">
+      <c r="F348" s="2">
         <v>2488.5500000000002</v>
       </c>
       <c r="G348" t="s">
@@ -14642,7 +14643,7 @@
       <c r="E349" t="s">
         <v>89</v>
       </c>
-      <c r="F349" s="1">
+      <c r="F349" s="2">
         <v>4131.4399999999996</v>
       </c>
       <c r="G349" t="s">
@@ -14677,7 +14678,7 @@
       <c r="E350" t="s">
         <v>31</v>
       </c>
-      <c r="F350" s="1">
+      <c r="F350" s="2">
         <v>250</v>
       </c>
       <c r="G350" t="s">
@@ -14712,7 +14713,7 @@
       <c r="E351" t="s">
         <v>31</v>
       </c>
-      <c r="F351" s="1">
+      <c r="F351" s="2">
         <v>550</v>
       </c>
       <c r="G351" t="s">
@@ -14747,7 +14748,7 @@
       <c r="E352" t="s">
         <v>89</v>
       </c>
-      <c r="F352" s="1">
+      <c r="F352" s="2">
         <v>2410.87</v>
       </c>
       <c r="G352" t="s">
@@ -14782,7 +14783,7 @@
       <c r="E353" t="s">
         <v>89</v>
       </c>
-      <c r="F353" s="1">
+      <c r="F353" s="2">
         <v>2771.64</v>
       </c>
       <c r="G353" t="s">
@@ -14817,7 +14818,7 @@
       <c r="E354" t="s">
         <v>89</v>
       </c>
-      <c r="F354" s="1">
+      <c r="F354" s="2">
         <v>2872.41</v>
       </c>
       <c r="G354" t="s">
@@ -14852,7 +14853,7 @@
       <c r="E355" t="s">
         <v>89</v>
       </c>
-      <c r="F355" s="1">
+      <c r="F355" s="2">
         <v>2208.41</v>
       </c>
       <c r="G355" t="s">
@@ -14887,7 +14888,7 @@
       <c r="E356" t="s">
         <v>89</v>
       </c>
-      <c r="F356" s="1">
+      <c r="F356" s="2">
         <v>2914.92</v>
       </c>
       <c r="G356" t="s">
@@ -14922,7 +14923,7 @@
       <c r="E357" t="s">
         <v>89</v>
       </c>
-      <c r="F357" s="1">
+      <c r="F357" s="2">
         <v>3671.9</v>
       </c>
       <c r="G357" t="s">
@@ -14957,7 +14958,7 @@
       <c r="E358" t="s">
         <v>473</v>
       </c>
-      <c r="F358" s="1">
+      <c r="F358" s="2">
         <v>121</v>
       </c>
       <c r="G358" t="s">
@@ -14992,7 +14993,7 @@
       <c r="E359" t="s">
         <v>89</v>
       </c>
-      <c r="F359" s="1">
+      <c r="F359" s="2">
         <v>1903.2</v>
       </c>
       <c r="G359" t="s">
@@ -15027,7 +15028,7 @@
       <c r="E360" t="s">
         <v>89</v>
       </c>
-      <c r="F360" s="1">
+      <c r="F360" s="2">
         <v>1743.43</v>
       </c>
       <c r="G360" t="s">
@@ -15062,7 +15063,7 @@
       <c r="E361" t="s">
         <v>89</v>
       </c>
-      <c r="F361" s="1">
+      <c r="F361" s="2">
         <v>2071.83</v>
       </c>
       <c r="G361" t="s">
@@ -15097,7 +15098,7 @@
       <c r="E362" t="s">
         <v>89</v>
       </c>
-      <c r="F362" s="1">
+      <c r="F362" s="2">
         <v>2236.21</v>
       </c>
       <c r="G362" t="s">
@@ -15132,7 +15133,7 @@
       <c r="E363" t="s">
         <v>89</v>
       </c>
-      <c r="F363" s="1">
+      <c r="F363" s="2">
         <v>2103.44</v>
       </c>
       <c r="G363" t="s">
@@ -15167,7 +15168,7 @@
       <c r="E364" t="s">
         <v>89</v>
       </c>
-      <c r="F364" s="1">
+      <c r="F364" s="2">
         <v>1943.76</v>
       </c>
       <c r="G364" t="s">
@@ -15202,7 +15203,7 @@
       <c r="E365" t="s">
         <v>89</v>
       </c>
-      <c r="F365" s="1">
+      <c r="F365" s="2">
         <v>2224.4499999999998</v>
       </c>
       <c r="G365" t="s">
@@ -15237,7 +15238,7 @@
       <c r="E366" t="s">
         <v>89</v>
       </c>
-      <c r="F366" s="1">
+      <c r="F366" s="2">
         <v>1963.47</v>
       </c>
       <c r="G366" t="s">
@@ -15272,7 +15273,7 @@
       <c r="E367" t="s">
         <v>89</v>
       </c>
-      <c r="F367" s="1">
+      <c r="F367" s="2">
         <v>2198.48</v>
       </c>
       <c r="G367" t="s">
@@ -15307,7 +15308,7 @@
       <c r="E368" t="s">
         <v>89</v>
       </c>
-      <c r="F368" s="1">
+      <c r="F368" s="2">
         <v>2025.58</v>
       </c>
       <c r="G368" t="s">
@@ -15342,7 +15343,7 @@
       <c r="E369" t="s">
         <v>89</v>
       </c>
-      <c r="F369" s="1">
+      <c r="F369" s="2">
         <v>1720.02</v>
       </c>
       <c r="G369" t="s">
@@ -15377,7 +15378,7 @@
       <c r="E370" t="s">
         <v>89</v>
       </c>
-      <c r="F370" s="1">
+      <c r="F370" s="2">
         <v>1861.36</v>
       </c>
       <c r="G370" t="s">
@@ -15412,7 +15413,7 @@
       <c r="E371" t="s">
         <v>89</v>
       </c>
-      <c r="F371" s="1">
+      <c r="F371" s="2">
         <v>2222.7199999999998</v>
       </c>
       <c r="G371" t="s">
@@ -15447,7 +15448,7 @@
       <c r="E372" t="s">
         <v>89</v>
       </c>
-      <c r="F372" s="1">
+      <c r="F372" s="2">
         <v>2249.5700000000002</v>
       </c>
       <c r="G372" t="s">
@@ -15482,7 +15483,7 @@
       <c r="E373" t="s">
         <v>89</v>
       </c>
-      <c r="F373" s="1">
+      <c r="F373" s="2">
         <v>1916.53</v>
       </c>
       <c r="G373" t="s">
@@ -15517,7 +15518,7 @@
       <c r="E374" t="s">
         <v>89</v>
       </c>
-      <c r="F374" s="1">
+      <c r="F374" s="2">
         <v>2234.1799999999998</v>
       </c>
       <c r="G374" t="s">
@@ -15552,7 +15553,7 @@
       <c r="E375" t="s">
         <v>89</v>
       </c>
-      <c r="F375" s="1">
+      <c r="F375" s="2">
         <v>2476.88</v>
       </c>
       <c r="G375" t="s">
@@ -15587,7 +15588,7 @@
       <c r="E376" t="s">
         <v>89</v>
       </c>
-      <c r="F376" s="1">
+      <c r="F376" s="2">
         <v>2424.83</v>
       </c>
       <c r="G376" t="s">
@@ -15619,7 +15620,7 @@
       <c r="E377" t="s">
         <v>31</v>
       </c>
-      <c r="F377" s="1">
+      <c r="F377" s="2">
         <v>150</v>
       </c>
       <c r="G377" t="s">
@@ -15651,7 +15652,7 @@
       <c r="E378" t="s">
         <v>31</v>
       </c>
-      <c r="F378" s="1">
+      <c r="F378" s="2">
         <v>185</v>
       </c>
       <c r="G378" t="s">
@@ -15683,7 +15684,7 @@
       <c r="E379" t="s">
         <v>31</v>
       </c>
-      <c r="F379" s="1">
+      <c r="F379" s="2">
         <v>160</v>
       </c>
       <c r="G379" t="s">
@@ -15718,7 +15719,7 @@
       <c r="E380" t="s">
         <v>89</v>
       </c>
-      <c r="F380" s="1">
+      <c r="F380" s="2">
         <v>2093.9699999999998</v>
       </c>
       <c r="G380" t="s">
@@ -15753,7 +15754,7 @@
       <c r="E381" t="s">
         <v>31</v>
       </c>
-      <c r="F381" s="1">
+      <c r="F381" s="2">
         <v>400</v>
       </c>
       <c r="G381" t="s">
@@ -15788,7 +15789,7 @@
       <c r="E382" t="s">
         <v>31</v>
       </c>
-      <c r="F382" s="1">
+      <c r="F382" s="2">
         <v>460</v>
       </c>
       <c r="G382" t="s">
@@ -15823,7 +15824,7 @@
       <c r="E383" t="s">
         <v>225</v>
       </c>
-      <c r="F383" s="1">
+      <c r="F383" s="2">
         <v>700</v>
       </c>
       <c r="G383" t="s">
@@ -15858,7 +15859,7 @@
       <c r="E384" t="s">
         <v>225</v>
       </c>
-      <c r="F384" s="1">
+      <c r="F384" s="2">
         <v>743.63</v>
       </c>
       <c r="G384" t="s">
@@ -15893,7 +15894,7 @@
       <c r="E385" t="s">
         <v>225</v>
       </c>
-      <c r="F385" s="1">
+      <c r="F385" s="2">
         <v>999</v>
       </c>
       <c r="G385" t="s">
@@ -15925,7 +15926,7 @@
       <c r="E386" t="s">
         <v>31</v>
       </c>
-      <c r="F386" s="1">
+      <c r="F386" s="2">
         <v>485</v>
       </c>
       <c r="G386" t="s">
@@ -15960,7 +15961,7 @@
       <c r="E387" t="s">
         <v>31</v>
       </c>
-      <c r="F387" s="1">
+      <c r="F387" s="2">
         <v>120</v>
       </c>
       <c r="G387" t="s">
@@ -15995,7 +15996,7 @@
       <c r="E388" t="s">
         <v>31</v>
       </c>
-      <c r="F388" s="1">
+      <c r="F388" s="2">
         <v>90.51</v>
       </c>
       <c r="G388" t="s">
@@ -16027,7 +16028,7 @@
       <c r="E389" t="s">
         <v>89</v>
       </c>
-      <c r="F389" s="1">
+      <c r="F389" s="2">
         <v>2349.48</v>
       </c>
       <c r="G389" t="s">
@@ -16059,7 +16060,7 @@
       <c r="E390" t="s">
         <v>89</v>
       </c>
-      <c r="F390" s="1">
+      <c r="F390" s="2">
         <v>2814.94</v>
       </c>
       <c r="G390" t="s">
@@ -16091,7 +16092,7 @@
       <c r="E391" t="s">
         <v>89</v>
       </c>
-      <c r="F391" s="1">
+      <c r="F391" s="2">
         <v>2257.7800000000002</v>
       </c>
       <c r="G391" t="s">
@@ -16123,7 +16124,7 @@
       <c r="E392" t="s">
         <v>89</v>
       </c>
-      <c r="F392" s="1">
+      <c r="F392" s="2">
         <v>2274.46</v>
       </c>
       <c r="G392" t="s">
@@ -16155,7 +16156,7 @@
       <c r="E393" t="s">
         <v>89</v>
       </c>
-      <c r="F393" s="1">
+      <c r="F393" s="2">
         <v>2721.6</v>
       </c>
       <c r="G393" t="s">
@@ -16187,7 +16188,7 @@
       <c r="E394" t="s">
         <v>89</v>
       </c>
-      <c r="F394" s="1">
+      <c r="F394" s="2">
         <v>3263.41</v>
       </c>
       <c r="G394" t="s">
@@ -16219,7 +16220,7 @@
       <c r="E395" t="s">
         <v>89</v>
       </c>
-      <c r="F395" s="1">
+      <c r="F395" s="2">
         <v>2620.7600000000002</v>
       </c>
       <c r="G395" t="s">
@@ -16251,7 +16252,7 @@
       <c r="E396" t="s">
         <v>89</v>
       </c>
-      <c r="F396" s="1">
+      <c r="F396" s="2">
         <v>3065.22</v>
       </c>
       <c r="G396" t="s">
@@ -16283,7 +16284,7 @@
       <c r="E397" t="s">
         <v>89</v>
       </c>
-      <c r="F397" s="1">
+      <c r="F397" s="2">
         <v>2511.36</v>
       </c>
       <c r="G397" t="s">
@@ -16312,7 +16313,7 @@
       <c r="E398" t="s">
         <v>89</v>
       </c>
-      <c r="F398" s="1">
+      <c r="F398" s="2">
         <v>2669.13</v>
       </c>
       <c r="G398" t="s">
@@ -16341,7 +16342,7 @@
       <c r="E399" t="s">
         <v>89</v>
       </c>
-      <c r="F399" s="1">
+      <c r="F399" s="2">
         <v>2693.84</v>
       </c>
       <c r="G399" t="s">
@@ -16373,7 +16374,7 @@
       <c r="E400" t="s">
         <v>89</v>
       </c>
-      <c r="F400" s="1">
+      <c r="F400" s="2">
         <v>4050</v>
       </c>
       <c r="G400" t="s">
@@ -16408,7 +16409,7 @@
       <c r="E401" t="s">
         <v>2</v>
       </c>
-      <c r="F401" s="1">
+      <c r="F401" s="2">
         <v>101.5</v>
       </c>
       <c r="G401" t="s">
@@ -16440,7 +16441,7 @@
       <c r="E402" t="s">
         <v>2</v>
       </c>
-      <c r="F402" s="1">
+      <c r="F402" s="2">
         <v>189</v>
       </c>
       <c r="G402" t="s">
@@ -16472,7 +16473,7 @@
       <c r="E403" t="s">
         <v>2</v>
       </c>
-      <c r="F403" s="1">
+      <c r="F403" s="2">
         <v>182.74</v>
       </c>
       <c r="G403" t="s">
@@ -16504,7 +16505,7 @@
       <c r="E404" t="s">
         <v>2</v>
       </c>
-      <c r="F404" s="1">
+      <c r="F404" s="2">
         <v>101.4</v>
       </c>
       <c r="G404" t="s">
@@ -16536,7 +16537,7 @@
       <c r="E405" t="s">
         <v>2</v>
       </c>
-      <c r="F405" s="1">
+      <c r="F405" s="2">
         <v>120</v>
       </c>
       <c r="G405" t="s">
@@ -16568,7 +16569,7 @@
       <c r="E406" t="s">
         <v>2</v>
       </c>
-      <c r="F406" s="1">
+      <c r="F406" s="2">
         <v>100</v>
       </c>
       <c r="G406" t="s">
@@ -16600,7 +16601,7 @@
       <c r="E407" t="s">
         <v>2</v>
       </c>
-      <c r="F407" s="1">
+      <c r="F407" s="2">
         <v>142.5</v>
       </c>
       <c r="G407" t="s">
@@ -16632,7 +16633,7 @@
       <c r="E408" t="s">
         <v>2</v>
       </c>
-      <c r="F408" s="1">
+      <c r="F408" s="2">
         <v>112.5</v>
       </c>
       <c r="G408" t="s">
@@ -16664,7 +16665,7 @@
       <c r="E409" t="s">
         <v>2</v>
       </c>
-      <c r="F409" s="1">
+      <c r="F409" s="2">
         <v>115</v>
       </c>
       <c r="G409" t="s">
@@ -16696,7 +16697,7 @@
       <c r="E410" t="s">
         <v>2</v>
       </c>
-      <c r="F410" s="1">
+      <c r="F410" s="2">
         <v>119</v>
       </c>
       <c r="G410" t="s">
@@ -16728,7 +16729,7 @@
       <c r="E411" t="s">
         <v>2</v>
       </c>
-      <c r="F411" s="1">
+      <c r="F411" s="2">
         <v>124.9</v>
       </c>
       <c r="G411" t="s">
@@ -16760,7 +16761,7 @@
       <c r="E412" t="s">
         <v>2</v>
       </c>
-      <c r="F412" s="1">
+      <c r="F412" s="2">
         <v>156.08000000000001</v>
       </c>
       <c r="G412" t="s">
@@ -16792,7 +16793,7 @@
       <c r="E413" t="s">
         <v>2</v>
       </c>
-      <c r="F413" s="1">
+      <c r="F413" s="2">
         <v>100.94</v>
       </c>
       <c r="G413" t="s">
@@ -16824,7 +16825,7 @@
       <c r="E414" t="s">
         <v>2</v>
       </c>
-      <c r="F414" s="1">
+      <c r="F414" s="2">
         <v>119.95</v>
       </c>
       <c r="G414" t="s">
@@ -16856,7 +16857,7 @@
       <c r="E415" t="s">
         <v>2</v>
       </c>
-      <c r="F415" s="1">
+      <c r="F415" s="2">
         <v>127.4</v>
       </c>
       <c r="G415" t="s">
@@ -16888,7 +16889,7 @@
       <c r="E416" t="s">
         <v>2</v>
       </c>
-      <c r="F416" s="1">
+      <c r="F416" s="2">
         <v>120</v>
       </c>
       <c r="G416" t="s">
@@ -16920,7 +16921,7 @@
       <c r="E417" t="s">
         <v>2</v>
       </c>
-      <c r="F417" s="1">
+      <c r="F417" s="2">
         <v>98.88</v>
       </c>
       <c r="G417" t="s">
@@ -16952,7 +16953,7 @@
       <c r="E418" t="s">
         <v>2</v>
       </c>
-      <c r="F418" s="1">
+      <c r="F418" s="2">
         <v>119</v>
       </c>
       <c r="G418" t="s">
@@ -16984,7 +16985,7 @@
       <c r="E419" t="s">
         <v>2</v>
       </c>
-      <c r="F419" s="1">
+      <c r="F419" s="2">
         <v>128.03</v>
       </c>
       <c r="G419" t="s">
@@ -17016,7 +17017,7 @@
       <c r="E420" t="s">
         <v>2</v>
       </c>
-      <c r="F420" s="1">
+      <c r="F420" s="2">
         <v>108.5</v>
       </c>
       <c r="G420" t="s">
@@ -17048,7 +17049,7 @@
       <c r="E421" t="s">
         <v>2</v>
       </c>
-      <c r="F421" s="1">
+      <c r="F421" s="2">
         <v>130.5</v>
       </c>
       <c r="G421" t="s">
@@ -17080,7 +17081,7 @@
       <c r="E422" t="s">
         <v>2</v>
       </c>
-      <c r="F422" s="1">
+      <c r="F422" s="2">
         <v>115</v>
       </c>
       <c r="G422" t="s">
@@ -17112,7 +17113,7 @@
       <c r="E423" t="s">
         <v>2</v>
       </c>
-      <c r="F423" s="1">
+      <c r="F423" s="2">
         <v>190</v>
       </c>
       <c r="G423" t="s">
@@ -17144,7 +17145,7 @@
       <c r="E424" t="s">
         <v>2</v>
       </c>
-      <c r="F424" s="1">
+      <c r="F424" s="2">
         <v>173.71</v>
       </c>
       <c r="G424" t="s">
@@ -17176,7 +17177,7 @@
       <c r="E425" t="s">
         <v>2</v>
       </c>
-      <c r="F425" s="1">
+      <c r="F425" s="2">
         <v>152.5</v>
       </c>
       <c r="G425" t="s">
@@ -17208,7 +17209,7 @@
       <c r="E426" t="s">
         <v>2</v>
       </c>
-      <c r="F426" s="1">
+      <c r="F426" s="2">
         <v>105.78</v>
       </c>
       <c r="G426" t="s">
@@ -17240,7 +17241,7 @@
       <c r="E427" t="s">
         <v>2</v>
       </c>
-      <c r="F427" s="1">
+      <c r="F427" s="2">
         <v>106.92</v>
       </c>
       <c r="G427" t="s">
@@ -17272,7 +17273,7 @@
       <c r="E428" t="s">
         <v>2</v>
       </c>
-      <c r="F428" s="1">
+      <c r="F428" s="2">
         <v>109</v>
       </c>
       <c r="G428" t="s">
@@ -17304,7 +17305,7 @@
       <c r="E429" t="s">
         <v>2</v>
       </c>
-      <c r="F429" s="1">
+      <c r="F429" s="2">
         <v>195.5</v>
       </c>
       <c r="G429" t="s">
@@ -17336,7 +17337,7 @@
       <c r="E430" t="s">
         <v>2</v>
       </c>
-      <c r="F430" s="1">
+      <c r="F430" s="2">
         <v>125</v>
       </c>
       <c r="G430" t="s">
@@ -17368,7 +17369,7 @@
       <c r="E431" t="s">
         <v>2</v>
       </c>
-      <c r="F431" s="1">
+      <c r="F431" s="2">
         <v>120</v>
       </c>
       <c r="G431" t="s">
@@ -17400,7 +17401,7 @@
       <c r="E432" t="s">
         <v>2</v>
       </c>
-      <c r="F432" s="1">
+      <c r="F432" s="2">
         <v>118.25</v>
       </c>
       <c r="G432" t="s">
@@ -17432,7 +17433,7 @@
       <c r="E433" t="s">
         <v>2</v>
       </c>
-      <c r="F433" s="1">
+      <c r="F433" s="2">
         <v>116.34</v>
       </c>
       <c r="G433" t="s">
@@ -17464,7 +17465,7 @@
       <c r="E434" t="s">
         <v>2</v>
       </c>
-      <c r="F434" s="1">
+      <c r="F434" s="2">
         <v>172.45</v>
       </c>
       <c r="G434" t="s">
@@ -17496,7 +17497,7 @@
       <c r="E435" t="s">
         <v>2</v>
       </c>
-      <c r="F435" s="1">
+      <c r="F435" s="2">
         <v>149.72</v>
       </c>
       <c r="G435" t="s">
@@ -17528,7 +17529,7 @@
       <c r="E436" t="s">
         <v>2</v>
       </c>
-      <c r="F436" s="1">
+      <c r="F436" s="2">
         <v>136.5</v>
       </c>
       <c r="G436" t="s">
@@ -17560,7 +17561,7 @@
       <c r="E437" t="s">
         <v>2</v>
       </c>
-      <c r="F437" s="1">
+      <c r="F437" s="2">
         <v>128.69999999999999</v>
       </c>
       <c r="G437" t="s">
@@ -17592,7 +17593,7 @@
       <c r="E438" t="s">
         <v>2</v>
       </c>
-      <c r="F438" s="1">
+      <c r="F438" s="2">
         <v>158</v>
       </c>
       <c r="G438" t="s">
@@ -17624,7 +17625,7 @@
       <c r="E439" t="s">
         <v>2</v>
       </c>
-      <c r="F439" s="1">
+      <c r="F439" s="2">
         <v>104.5</v>
       </c>
       <c r="G439" t="s">
@@ -17656,7 +17657,7 @@
       <c r="E440" t="s">
         <v>2</v>
       </c>
-      <c r="F440" s="1">
+      <c r="F440" s="2">
         <v>149</v>
       </c>
       <c r="G440" t="s">
@@ -17688,7 +17689,7 @@
       <c r="E441" t="s">
         <v>2</v>
       </c>
-      <c r="F441" s="1">
+      <c r="F441" s="2">
         <v>131.27000000000001</v>
       </c>
       <c r="G441" t="s">
@@ -17720,7 +17721,7 @@
       <c r="E442" t="s">
         <v>2</v>
       </c>
-      <c r="F442" s="1">
+      <c r="F442" s="2">
         <v>178</v>
       </c>
       <c r="G442" t="s">
@@ -17752,7 +17753,7 @@
       <c r="E443" t="s">
         <v>2</v>
       </c>
-      <c r="F443" s="1">
+      <c r="F443" s="2">
         <v>172.87</v>
       </c>
       <c r="G443" t="s">
@@ -17784,7 +17785,7 @@
       <c r="E444" t="s">
         <v>2</v>
       </c>
-      <c r="F444" s="1">
+      <c r="F444" s="2">
         <v>125.5</v>
       </c>
       <c r="G444" t="s">
@@ -17816,7 +17817,7 @@
       <c r="E445" t="s">
         <v>2</v>
       </c>
-      <c r="F445" s="1">
+      <c r="F445" s="2">
         <v>111.8</v>
       </c>
       <c r="G445" t="s">
@@ -17848,7 +17849,7 @@
       <c r="E446" t="s">
         <v>2</v>
       </c>
-      <c r="F446" s="1">
+      <c r="F446" s="2">
         <v>134.99</v>
       </c>
       <c r="G446" t="s">
@@ -17877,7 +17878,7 @@
       <c r="E447" t="s">
         <v>2</v>
       </c>
-      <c r="F447" s="1">
+      <c r="F447" s="2">
         <v>219.32</v>
       </c>
       <c r="G447" t="s">
@@ -17906,7 +17907,7 @@
       <c r="E448" t="s">
         <v>2</v>
       </c>
-      <c r="F448" s="1">
+      <c r="F448" s="2">
         <v>129</v>
       </c>
       <c r="G448" t="s">
@@ -17935,7 +17936,7 @@
       <c r="E449" t="s">
         <v>2</v>
       </c>
-      <c r="F449" s="1">
+      <c r="F449" s="2">
         <v>248</v>
       </c>
       <c r="G449" t="s">
@@ -17964,7 +17965,7 @@
       <c r="E450" t="s">
         <v>2</v>
       </c>
-      <c r="F450" s="1">
+      <c r="F450" s="2">
         <v>225.13</v>
       </c>
       <c r="G450" t="s">
@@ -17993,7 +17994,7 @@
       <c r="E451" t="s">
         <v>2</v>
       </c>
-      <c r="F451" s="1">
+      <c r="F451" s="2">
         <v>209</v>
       </c>
       <c r="G451" t="s">
@@ -18022,7 +18023,7 @@
       <c r="E452" t="s">
         <v>2</v>
       </c>
-      <c r="F452" s="1">
+      <c r="F452" s="2">
         <v>185</v>
       </c>
       <c r="G452" t="s">
@@ -18051,7 +18052,7 @@
       <c r="E453" t="s">
         <v>2</v>
       </c>
-      <c r="F453" s="1">
+      <c r="F453" s="2">
         <v>182</v>
       </c>
       <c r="G453" t="s">
@@ -18080,7 +18081,7 @@
       <c r="E454" t="s">
         <v>2</v>
       </c>
-      <c r="F454" s="1">
+      <c r="F454" s="2">
         <v>163.5</v>
       </c>
       <c r="G454" t="s">
@@ -18109,7 +18110,7 @@
       <c r="E455" t="s">
         <v>2</v>
       </c>
-      <c r="F455" s="1">
+      <c r="F455" s="2">
         <v>127.78</v>
       </c>
       <c r="G455" t="s">
@@ -18138,7 +18139,7 @@
       <c r="E456" t="s">
         <v>2</v>
       </c>
-      <c r="F456" s="1">
+      <c r="F456" s="2">
         <v>118.55</v>
       </c>
       <c r="G456" t="s">
@@ -18167,7 +18168,7 @@
       <c r="E457" t="s">
         <v>2</v>
       </c>
-      <c r="F457" s="1">
+      <c r="F457" s="2">
         <v>138.88999999999999</v>
       </c>
       <c r="G457" t="s">
@@ -18196,7 +18197,7 @@
       <c r="E458" t="s">
         <v>2</v>
       </c>
-      <c r="F458" s="1">
+      <c r="F458" s="2">
         <v>152</v>
       </c>
       <c r="G458" t="s">
@@ -18225,7 +18226,7 @@
       <c r="E459" t="s">
         <v>2</v>
       </c>
-      <c r="F459" s="1">
+      <c r="F459" s="2">
         <v>240</v>
       </c>
       <c r="G459" t="s">
@@ -18254,7 +18255,7 @@
       <c r="E460" t="s">
         <v>2</v>
       </c>
-      <c r="F460" s="1">
+      <c r="F460" s="2">
         <v>249</v>
       </c>
       <c r="G460" t="s">
@@ -18283,7 +18284,7 @@
       <c r="E461" t="s">
         <v>2</v>
       </c>
-      <c r="F461" s="1">
+      <c r="F461" s="2">
         <v>225</v>
       </c>
       <c r="G461" t="s">
@@ -18312,7 +18313,7 @@
       <c r="E462" t="s">
         <v>2</v>
       </c>
-      <c r="F462" s="1">
+      <c r="F462" s="2">
         <v>225.5</v>
       </c>
       <c r="G462" t="s">
@@ -18341,7 +18342,7 @@
       <c r="E463" t="s">
         <v>2</v>
       </c>
-      <c r="F463" s="1">
+      <c r="F463" s="2">
         <v>190</v>
       </c>
       <c r="G463" t="s">
@@ -18370,7 +18371,7 @@
       <c r="E464" t="s">
         <v>2</v>
       </c>
-      <c r="F464" s="1">
+      <c r="F464" s="2">
         <v>247</v>
       </c>
       <c r="G464" t="s">
@@ -18399,7 +18400,7 @@
       <c r="E465" t="s">
         <v>2</v>
       </c>
-      <c r="F465" s="1">
+      <c r="F465" s="2">
         <v>205</v>
       </c>
       <c r="G465" t="s">
@@ -18428,7 +18429,7 @@
       <c r="E466" t="s">
         <v>2</v>
       </c>
-      <c r="F466" s="1">
+      <c r="F466" s="2">
         <v>255</v>
       </c>
       <c r="G466" t="s">
@@ -18457,7 +18458,7 @@
       <c r="E467" t="s">
         <v>2</v>
       </c>
-      <c r="F467" s="1">
+      <c r="F467" s="2">
         <v>260</v>
       </c>
       <c r="G467" t="s">
@@ -18486,7 +18487,7 @@
       <c r="E468" t="s">
         <v>2</v>
       </c>
-      <c r="F468" s="1">
+      <c r="F468" s="2">
         <v>199.99</v>
       </c>
       <c r="G468" t="s">
@@ -18515,7 +18516,7 @@
       <c r="E469" t="s">
         <v>2</v>
       </c>
-      <c r="F469" s="1">
+      <c r="F469" s="2">
         <v>175</v>
       </c>
       <c r="G469" t="s">
@@ -18544,7 +18545,7 @@
       <c r="E470" t="s">
         <v>2</v>
       </c>
-      <c r="F470" s="1">
+      <c r="F470" s="2">
         <v>166</v>
       </c>
       <c r="G470" t="s">
@@ -18573,7 +18574,7 @@
       <c r="E471" t="s">
         <v>2</v>
       </c>
-      <c r="F471" s="1">
+      <c r="F471" s="2">
         <v>228.2</v>
       </c>
       <c r="G471" t="s">
@@ -18602,7 +18603,7 @@
       <c r="E472" t="s">
         <v>2</v>
       </c>
-      <c r="F472" s="1">
+      <c r="F472" s="2">
         <v>222.04</v>
       </c>
       <c r="G472" t="s">
@@ -18631,7 +18632,7 @@
       <c r="E473" t="s">
         <v>2</v>
       </c>
-      <c r="F473" s="1">
+      <c r="F473" s="2">
         <v>112.5</v>
       </c>
       <c r="G473" t="s">
@@ -18660,7 +18661,7 @@
       <c r="E474" t="s">
         <v>2</v>
       </c>
-      <c r="F474" s="1">
+      <c r="F474" s="2">
         <v>261.7</v>
       </c>
       <c r="G474" t="s">
@@ -18689,7 +18690,7 @@
       <c r="E475" t="s">
         <v>2</v>
       </c>
-      <c r="F475" s="1">
+      <c r="F475" s="2">
         <v>348.86</v>
       </c>
       <c r="G475" t="s">
@@ -18718,7 +18719,7 @@
       <c r="E476" t="s">
         <v>2</v>
       </c>
-      <c r="F476" s="1">
+      <c r="F476" s="2">
         <v>198.5</v>
       </c>
       <c r="G476" t="s">
@@ -18747,7 +18748,7 @@
       <c r="E477" t="s">
         <v>2</v>
       </c>
-      <c r="F477" s="1">
+      <c r="F477" s="2">
         <v>8.4</v>
       </c>
       <c r="G477" t="s">
@@ -18776,7 +18777,7 @@
       <c r="E478" t="s">
         <v>2</v>
       </c>
-      <c r="F478" s="1">
+      <c r="F478" s="2">
         <v>9.5</v>
       </c>
       <c r="G478" t="s">
@@ -18805,7 +18806,7 @@
       <c r="E479" t="s">
         <v>2</v>
       </c>
-      <c r="F479" s="1">
+      <c r="F479" s="2">
         <v>8.4</v>
       </c>
       <c r="G479" t="s">
@@ -18834,7 +18835,7 @@
       <c r="E480" t="s">
         <v>2</v>
       </c>
-      <c r="F480" s="1">
+      <c r="F480" s="2">
         <v>15.33</v>
       </c>
       <c r="G480" t="s">
@@ -18863,7 +18864,7 @@
       <c r="E481" t="s">
         <v>2</v>
       </c>
-      <c r="F481" s="1">
+      <c r="F481" s="2">
         <v>25</v>
       </c>
       <c r="G481" t="s">
@@ -18892,7 +18893,7 @@
       <c r="E482" t="s">
         <v>2</v>
       </c>
-      <c r="F482" s="1">
+      <c r="F482" s="2">
         <v>24.78</v>
       </c>
       <c r="G482" t="s">
@@ -18921,7 +18922,7 @@
       <c r="E483" t="s">
         <v>2</v>
       </c>
-      <c r="F483" s="1">
+      <c r="F483" s="2">
         <v>5.97</v>
       </c>
       <c r="G483" t="s">
@@ -18950,7 +18951,7 @@
       <c r="E484" t="s">
         <v>2</v>
       </c>
-      <c r="F484" s="1">
+      <c r="F484" s="2">
         <v>9.01</v>
       </c>
       <c r="G484" t="s">
@@ -18979,7 +18980,7 @@
       <c r="E485" t="s">
         <v>2</v>
       </c>
-      <c r="F485" s="1">
+      <c r="F485" s="2">
         <v>14.25</v>
       </c>
       <c r="G485" t="s">
@@ -19008,7 +19009,7 @@
       <c r="E486" t="s">
         <v>2</v>
       </c>
-      <c r="F486" s="1">
+      <c r="F486" s="2">
         <v>10.8</v>
       </c>
       <c r="G486" t="s">
@@ -19037,7 +19038,7 @@
       <c r="E487" t="s">
         <v>2</v>
       </c>
-      <c r="F487" s="1">
+      <c r="F487" s="2">
         <v>9.8000000000000007</v>
       </c>
       <c r="G487" t="s">
@@ -19066,7 +19067,7 @@
       <c r="E488" t="s">
         <v>2</v>
       </c>
-      <c r="F488" s="1">
+      <c r="F488" s="2">
         <v>25.9</v>
       </c>
       <c r="G488" t="s">
@@ -19095,7 +19096,7 @@
       <c r="E489" t="s">
         <v>2</v>
       </c>
-      <c r="F489" s="1">
+      <c r="F489" s="2">
         <v>24.85</v>
       </c>
       <c r="G489" t="s">
@@ -19124,7 +19125,7 @@
       <c r="E490" t="s">
         <v>2</v>
       </c>
-      <c r="F490" s="1">
+      <c r="F490" s="2">
         <v>15.9</v>
       </c>
       <c r="G490" t="s">
@@ -19153,7 +19154,7 @@
       <c r="E491" t="s">
         <v>2</v>
       </c>
-      <c r="F491" s="1">
+      <c r="F491" s="2">
         <v>15.75</v>
       </c>
       <c r="G491" t="s">
@@ -19182,7 +19183,7 @@
       <c r="E492" t="s">
         <v>2</v>
       </c>
-      <c r="F492" s="1">
+      <c r="F492" s="2">
         <v>15</v>
       </c>
       <c r="G492" t="s">
@@ -19211,7 +19212,7 @@
       <c r="E493" t="s">
         <v>2</v>
       </c>
-      <c r="F493" s="1">
+      <c r="F493" s="2">
         <v>21.24</v>
       </c>
       <c r="G493" t="s">
@@ -19240,7 +19241,7 @@
       <c r="E494" t="s">
         <v>2</v>
       </c>
-      <c r="F494" s="1">
+      <c r="F494" s="2">
         <v>19</v>
       </c>
       <c r="G494" t="s">
@@ -19269,7 +19270,7 @@
       <c r="E495" t="s">
         <v>2</v>
       </c>
-      <c r="F495" s="1">
+      <c r="F495" s="2">
         <v>15</v>
       </c>
       <c r="G495" t="s">
@@ -19298,7 +19299,7 @@
       <c r="E496" t="s">
         <v>2</v>
       </c>
-      <c r="F496" s="1">
+      <c r="F496" s="2">
         <v>19</v>
       </c>
       <c r="G496" t="s">
@@ -19327,7 +19328,7 @@
       <c r="E497" t="s">
         <v>2</v>
       </c>
-      <c r="F497" s="1">
+      <c r="F497" s="2">
         <v>18.93</v>
       </c>
       <c r="G497" t="s">
@@ -19356,7 +19357,7 @@
       <c r="E498" t="s">
         <v>2</v>
       </c>
-      <c r="F498" s="1">
+      <c r="F498" s="2">
         <v>24.82</v>
       </c>
       <c r="G498" t="s">
@@ -19385,7 +19386,7 @@
       <c r="E499" t="s">
         <v>2</v>
       </c>
-      <c r="F499" s="1">
+      <c r="F499" s="2">
         <v>20</v>
       </c>
       <c r="G499" t="s">
@@ -19414,7 +19415,7 @@
       <c r="E500" t="s">
         <v>2</v>
       </c>
-      <c r="F500" s="1">
+      <c r="F500" s="2">
         <v>16.75</v>
       </c>
       <c r="G500" t="s">
@@ -19443,7 +19444,7 @@
       <c r="E501" t="s">
         <v>2</v>
       </c>
-      <c r="F501" s="1">
+      <c r="F501" s="2">
         <v>21.5</v>
       </c>
       <c r="G501" t="s">
@@ -19472,7 +19473,7 @@
       <c r="E502" t="s">
         <v>2</v>
       </c>
-      <c r="F502" s="1">
+      <c r="F502" s="2">
         <v>2</v>
       </c>
       <c r="G502" t="s">
@@ -19501,7 +19502,7 @@
       <c r="E503" t="s">
         <v>2</v>
       </c>
-      <c r="F503" s="1">
+      <c r="F503" s="2">
         <v>6</v>
       </c>
       <c r="G503" t="s">
@@ -19530,7 +19531,7 @@
       <c r="E504" t="s">
         <v>2</v>
       </c>
-      <c r="F504" s="1">
+      <c r="F504" s="2">
         <v>2.9</v>
       </c>
       <c r="G504" t="s">
@@ -19559,7 +19560,7 @@
       <c r="E505" t="s">
         <v>2</v>
       </c>
-      <c r="F505" s="1">
+      <c r="F505" s="2">
         <v>1.8</v>
       </c>
       <c r="G505" t="s">
@@ -19588,7 +19589,7 @@
       <c r="E506" t="s">
         <v>2</v>
       </c>
-      <c r="F506" s="1">
+      <c r="F506" s="2">
         <v>2.97</v>
       </c>
       <c r="G506" t="s">
@@ -19617,7 +19618,7 @@
       <c r="E507" t="s">
         <v>2</v>
       </c>
-      <c r="F507" s="1">
+      <c r="F507" s="2">
         <v>1.5</v>
       </c>
       <c r="G507" t="s">
@@ -19646,7 +19647,7 @@
       <c r="E508" t="s">
         <v>2</v>
       </c>
-      <c r="F508" s="1">
+      <c r="F508" s="2">
         <v>5.3</v>
       </c>
       <c r="G508" t="s">
@@ -19675,7 +19676,7 @@
       <c r="E509" t="s">
         <v>2</v>
       </c>
-      <c r="F509" s="1">
+      <c r="F509" s="2">
         <v>8</v>
       </c>
       <c r="G509" t="s">
@@ -19704,7 +19705,7 @@
       <c r="E510" t="s">
         <v>2</v>
       </c>
-      <c r="F510" s="1">
+      <c r="F510" s="2">
         <v>6</v>
       </c>
       <c r="G510" t="s">
@@ -19733,7 +19734,7 @@
       <c r="E511" t="s">
         <v>2</v>
       </c>
-      <c r="F511" s="1">
+      <c r="F511" s="2">
         <v>89</v>
       </c>
       <c r="G511" t="s">
@@ -19762,7 +19763,7 @@
       <c r="E512" t="s">
         <v>2</v>
       </c>
-      <c r="F512" s="1">
+      <c r="F512" s="2">
         <v>110</v>
       </c>
       <c r="G512" t="s">
@@ -19791,7 +19792,7 @@
       <c r="E513" t="s">
         <v>2</v>
       </c>
-      <c r="F513" s="1">
+      <c r="F513" s="2">
         <v>76</v>
       </c>
       <c r="G513" t="s">
@@ -19820,7 +19821,7 @@
       <c r="E514" t="s">
         <v>2</v>
       </c>
-      <c r="F514" s="1">
+      <c r="F514" s="2">
         <v>88</v>
       </c>
       <c r="G514" t="s">
@@ -19849,7 +19850,7 @@
       <c r="E515" t="s">
         <v>2</v>
       </c>
-      <c r="F515" s="1">
+      <c r="F515" s="2">
         <v>77</v>
       </c>
       <c r="G515" t="s">
@@ -19878,7 +19879,7 @@
       <c r="E516" t="s">
         <v>2</v>
       </c>
-      <c r="F516" s="1">
+      <c r="F516" s="2">
         <v>94.69</v>
       </c>
       <c r="G516" t="s">
@@ -19907,7 +19908,7 @@
       <c r="E517" t="s">
         <v>2</v>
       </c>
-      <c r="F517" s="1">
+      <c r="F517" s="2">
         <v>34.36</v>
       </c>
       <c r="G517" t="s">
@@ -19936,7 +19937,7 @@
       <c r="E518" t="s">
         <v>2</v>
       </c>
-      <c r="F518" s="1">
+      <c r="F518" s="2">
         <v>20.57</v>
       </c>
       <c r="G518" t="s">
@@ -19965,7 +19966,7 @@
       <c r="E519" t="s">
         <v>2</v>
       </c>
-      <c r="F519" s="1">
+      <c r="F519" s="2">
         <v>23.3</v>
       </c>
       <c r="G519" t="s">
@@ -19994,7 +19995,7 @@
       <c r="E520" t="s">
         <v>2</v>
       </c>
-      <c r="F520" s="1">
+      <c r="F520" s="2">
         <v>77.900000000000006</v>
       </c>
       <c r="G520" t="s">
@@ -20023,7 +20024,7 @@
       <c r="E521" t="s">
         <v>2</v>
       </c>
-      <c r="F521" s="1">
+      <c r="F521" s="2">
         <v>80.17</v>
       </c>
       <c r="G521" t="s">
@@ -20052,7 +20053,7 @@
       <c r="E522" t="s">
         <v>2</v>
       </c>
-      <c r="F522" s="1">
+      <c r="F522" s="2">
         <v>85</v>
       </c>
       <c r="G522" t="s">
@@ -20081,7 +20082,7 @@
       <c r="E523" t="s">
         <v>2</v>
       </c>
-      <c r="F523" s="1">
+      <c r="F523" s="2">
         <v>44</v>
       </c>
       <c r="G523" t="s">
@@ -20110,7 +20111,7 @@
       <c r="E524" t="s">
         <v>2</v>
       </c>
-      <c r="F524" s="1">
+      <c r="F524" s="2">
         <v>72</v>
       </c>
       <c r="G524" t="s">
@@ -20139,7 +20140,7 @@
       <c r="E525" t="s">
         <v>2</v>
       </c>
-      <c r="F525" s="1">
+      <c r="F525" s="2">
         <v>45</v>
       </c>
       <c r="G525" t="s">
@@ -20168,7 +20169,7 @@
       <c r="E526" t="s">
         <v>2</v>
       </c>
-      <c r="F526" s="1">
+      <c r="F526" s="2">
         <v>104.99</v>
       </c>
       <c r="G526" t="s">
@@ -20197,7 +20198,7 @@
       <c r="E527" t="s">
         <v>2</v>
       </c>
-      <c r="F527" s="1">
+      <c r="F527" s="2">
         <v>52.44</v>
       </c>
       <c r="G527" t="s">
@@ -20226,7 +20227,7 @@
       <c r="E528" t="s">
         <v>2</v>
       </c>
-      <c r="F528" s="1">
+      <c r="F528" s="2">
         <v>89.99</v>
       </c>
       <c r="G528" t="s">
@@ -20255,7 +20256,7 @@
       <c r="E529" t="s">
         <v>2</v>
       </c>
-      <c r="F529" s="1">
+      <c r="F529" s="2">
         <v>76.150000000000006</v>
       </c>
       <c r="G529" t="s">
@@ -20284,7 +20285,7 @@
       <c r="E530" t="s">
         <v>2</v>
       </c>
-      <c r="F530" s="1">
+      <c r="F530" s="2">
         <v>57.99</v>
       </c>
       <c r="G530" t="s">
@@ -20313,7 +20314,7 @@
       <c r="E531" t="s">
         <v>2</v>
       </c>
-      <c r="F531" s="1">
+      <c r="F531" s="2">
         <v>60</v>
       </c>
       <c r="G531" t="s">
@@ -20342,7 +20343,7 @@
       <c r="E532" t="s">
         <v>2</v>
       </c>
-      <c r="F532" s="1">
+      <c r="F532" s="2">
         <v>105</v>
       </c>
       <c r="G532" t="s">
@@ -20371,7 +20372,7 @@
       <c r="E533" t="s">
         <v>2</v>
       </c>
-      <c r="F533" s="1">
+      <c r="F533" s="2">
         <v>98</v>
       </c>
       <c r="G533" t="s">
@@ -20400,7 +20401,7 @@
       <c r="E534" t="s">
         <v>2</v>
       </c>
-      <c r="F534" s="1">
+      <c r="F534" s="2">
         <v>70</v>
       </c>
       <c r="G534" t="s">
@@ -20429,7 +20430,7 @@
       <c r="E535" t="s">
         <v>2</v>
       </c>
-      <c r="F535" s="1">
+      <c r="F535" s="2">
         <v>40</v>
       </c>
       <c r="G535" t="s">
@@ -20458,7 +20459,7 @@
       <c r="E536" t="s">
         <v>2</v>
       </c>
-      <c r="F536" s="1">
+      <c r="F536" s="2">
         <v>35</v>
       </c>
       <c r="G536" t="s">
@@ -20487,7 +20488,7 @@
       <c r="E537" t="s">
         <v>2</v>
       </c>
-      <c r="F537" s="1">
+      <c r="F537" s="2">
         <v>36.700000000000003</v>
       </c>
       <c r="G537" t="s">
@@ -20516,7 +20517,7 @@
       <c r="E538" t="s">
         <v>2</v>
       </c>
-      <c r="F538" s="1">
+      <c r="F538" s="2">
         <v>70.099999999999994</v>
       </c>
       <c r="G538" t="s">
@@ -20545,7 +20546,7 @@
       <c r="E539" t="s">
         <v>2</v>
       </c>
-      <c r="F539" s="1">
+      <c r="F539" s="2">
         <v>10</v>
       </c>
       <c r="G539" t="s">
@@ -20574,7 +20575,7 @@
       <c r="E540" t="s">
         <v>2</v>
       </c>
-      <c r="F540" s="1">
+      <c r="F540" s="2">
         <v>8.85</v>
       </c>
       <c r="G540" t="s">
@@ -20603,7 +20604,7 @@
       <c r="E541" t="s">
         <v>2</v>
       </c>
-      <c r="F541" s="1">
+      <c r="F541" s="2">
         <v>9.8800000000000008</v>
       </c>
       <c r="G541" t="s">
@@ -20632,7 +20633,7 @@
       <c r="E542" t="s">
         <v>2</v>
       </c>
-      <c r="F542" s="1">
+      <c r="F542" s="2">
         <v>5.48</v>
       </c>
       <c r="G542" t="s">
@@ -20661,7 +20662,7 @@
       <c r="E543" t="s">
         <v>2</v>
       </c>
-      <c r="F543" s="1">
+      <c r="F543" s="2">
         <v>11</v>
       </c>
       <c r="G543" t="s">
@@ -20690,7 +20691,7 @@
       <c r="E544" t="s">
         <v>2</v>
       </c>
-      <c r="F544" s="1">
+      <c r="F544" s="2">
         <v>5.56</v>
       </c>
       <c r="G544" t="s">
@@ -20719,7 +20720,7 @@
       <c r="E545" t="s">
         <v>2</v>
       </c>
-      <c r="F545" s="1">
+      <c r="F545" s="2">
         <v>9.1</v>
       </c>
       <c r="G545" t="s">
@@ -20748,7 +20749,7 @@
       <c r="E546" t="s">
         <v>2</v>
       </c>
-      <c r="F546" s="1">
+      <c r="F546" s="2">
         <v>5</v>
       </c>
       <c r="G546" t="s">
@@ -20777,7 +20778,7 @@
       <c r="E547" t="s">
         <v>2</v>
       </c>
-      <c r="F547" s="1">
+      <c r="F547" s="2">
         <v>8.2100000000000009</v>
       </c>
       <c r="G547" t="s">
@@ -20806,7 +20807,7 @@
       <c r="E548" t="s">
         <v>2</v>
       </c>
-      <c r="F548" s="1">
+      <c r="F548" s="2">
         <v>10.9</v>
       </c>
       <c r="G548" t="s">
@@ -20835,7 +20836,7 @@
       <c r="E549" t="s">
         <v>2</v>
       </c>
-      <c r="F549" s="1">
+      <c r="F549" s="2">
         <v>8.5</v>
       </c>
       <c r="G549" t="s">
@@ -20864,7 +20865,7 @@
       <c r="E550" t="s">
         <v>2</v>
       </c>
-      <c r="F550" s="1">
+      <c r="F550" s="2">
         <v>10.65</v>
       </c>
       <c r="G550" t="s">
@@ -20893,7 +20894,7 @@
       <c r="E551" t="s">
         <v>2</v>
       </c>
-      <c r="F551" s="1">
+      <c r="F551" s="2">
         <v>8.19</v>
       </c>
       <c r="G551" t="s">
@@ -20922,7 +20923,7 @@
       <c r="E552" t="s">
         <v>2</v>
       </c>
-      <c r="F552" s="1">
+      <c r="F552" s="2">
         <v>10</v>
       </c>
       <c r="G552" t="s">
@@ -20951,7 +20952,7 @@
       <c r="E553" t="s">
         <v>2</v>
       </c>
-      <c r="F553" s="1">
+      <c r="F553" s="2">
         <v>8.85</v>
       </c>
       <c r="G553" t="s">
@@ -20980,7 +20981,7 @@
       <c r="E554" t="s">
         <v>2</v>
       </c>
-      <c r="F554" s="1">
+      <c r="F554" s="2">
         <v>10.9</v>
       </c>
       <c r="G554" t="s">
@@ -21009,7 +21010,7 @@
       <c r="E555" t="s">
         <v>2</v>
       </c>
-      <c r="F555" s="1">
+      <c r="F555" s="2">
         <v>11.4</v>
       </c>
       <c r="G555" t="s">
@@ -21038,7 +21039,7 @@
       <c r="E556" t="s">
         <v>2</v>
       </c>
-      <c r="F556" s="1">
+      <c r="F556" s="2">
         <v>5.49</v>
       </c>
       <c r="G556" t="s">
@@ -21067,7 +21068,7 @@
       <c r="E557" t="s">
         <v>2</v>
       </c>
-      <c r="F557" s="1">
+      <c r="F557" s="2">
         <v>5.1100000000000003</v>
       </c>
       <c r="G557" t="s">
@@ -21096,7 +21097,7 @@
       <c r="E558" t="s">
         <v>2</v>
       </c>
-      <c r="F558" s="1">
+      <c r="F558" s="2">
         <v>8.5</v>
       </c>
       <c r="G558" t="s">
@@ -21125,7 +21126,7 @@
       <c r="E559" t="s">
         <v>2</v>
       </c>
-      <c r="F559" s="1">
+      <c r="F559" s="2">
         <v>7.87</v>
       </c>
       <c r="G559" t="s">
@@ -21154,7 +21155,7 @@
       <c r="E560" t="s">
         <v>2</v>
       </c>
-      <c r="F560" s="1">
+      <c r="F560" s="2">
         <v>5.98</v>
       </c>
       <c r="G560" t="s">
@@ -21183,7 +21184,7 @@
       <c r="E561" t="s">
         <v>2</v>
       </c>
-      <c r="F561" s="1">
+      <c r="F561" s="2">
         <v>10.3</v>
       </c>
       <c r="G561" t="s">
@@ -21212,7 +21213,7 @@
       <c r="E562" t="s">
         <v>2</v>
       </c>
-      <c r="F562" s="1">
+      <c r="F562" s="2">
         <v>5.23</v>
       </c>
       <c r="G562" t="s">
@@ -21241,7 +21242,7 @@
       <c r="E563" t="s">
         <v>2</v>
       </c>
-      <c r="F563" s="1">
+      <c r="F563" s="2">
         <v>5.79</v>
       </c>
       <c r="G563" t="s">
@@ -21270,7 +21271,7 @@
       <c r="E564" t="s">
         <v>2</v>
       </c>
-      <c r="F564" s="1">
+      <c r="F564" s="2">
         <v>8.3000000000000007</v>
       </c>
       <c r="G564" t="s">
@@ -21299,7 +21300,7 @@
       <c r="E565" t="s">
         <v>2</v>
       </c>
-      <c r="F565" s="1">
+      <c r="F565" s="2">
         <v>7.23</v>
       </c>
       <c r="G565" t="s">
@@ -21328,7 +21329,7 @@
       <c r="E566" t="s">
         <v>2</v>
       </c>
-      <c r="F566" s="1">
+      <c r="F566" s="2">
         <v>5.6</v>
       </c>
       <c r="G566" t="s">
@@ -21357,7 +21358,7 @@
       <c r="E567" t="s">
         <v>2</v>
       </c>
-      <c r="F567" s="1">
+      <c r="F567" s="2">
         <v>8.49</v>
       </c>
       <c r="G567" t="s">
@@ -21386,7 +21387,7 @@
       <c r="E568" t="s">
         <v>2</v>
       </c>
-      <c r="F568" s="1">
+      <c r="F568" s="2">
         <v>13.13</v>
       </c>
       <c r="G568" t="s">
@@ -21415,7 +21416,7 @@
       <c r="E569" t="s">
         <v>2</v>
       </c>
-      <c r="F569" s="1">
+      <c r="F569" s="2">
         <v>16.899999999999999</v>
       </c>
       <c r="G569" t="s">
@@ -21444,7 +21445,7 @@
       <c r="E570" t="s">
         <v>2</v>
       </c>
-      <c r="F570" s="1">
+      <c r="F570" s="2">
         <v>21.5</v>
       </c>
       <c r="G570" t="s">
@@ -21473,7 +21474,7 @@
       <c r="E571" t="s">
         <v>2</v>
       </c>
-      <c r="F571" s="1">
+      <c r="F571" s="2">
         <v>14.85</v>
       </c>
       <c r="G571" t="s">
@@ -21502,7 +21503,7 @@
       <c r="E572" t="s">
         <v>2</v>
       </c>
-      <c r="F572" s="1">
+      <c r="F572" s="2">
         <v>15.8</v>
       </c>
       <c r="G572" t="s">
@@ -21531,7 +21532,7 @@
       <c r="E573" t="s">
         <v>2</v>
       </c>
-      <c r="F573" s="1">
+      <c r="F573" s="2">
         <v>22.5</v>
       </c>
       <c r="G573" t="s">
@@ -21560,7 +21561,7 @@
       <c r="E574" t="s">
         <v>2</v>
       </c>
-      <c r="F574" s="1">
+      <c r="F574" s="2">
         <v>21.9</v>
       </c>
       <c r="G574" t="s">
@@ -21589,7 +21590,7 @@
       <c r="E575" t="s">
         <v>2</v>
       </c>
-      <c r="F575" s="1">
+      <c r="F575" s="2">
         <v>14.09</v>
       </c>
       <c r="G575" t="s">
@@ -21618,7 +21619,7 @@
       <c r="E576" t="s">
         <v>2</v>
       </c>
-      <c r="F576" s="1">
+      <c r="F576" s="2">
         <v>16.3</v>
       </c>
       <c r="G576" t="s">
@@ -21647,7 +21648,7 @@
       <c r="E577" t="s">
         <v>2</v>
       </c>
-      <c r="F577" s="1">
+      <c r="F577" s="2">
         <v>20.52</v>
       </c>
       <c r="G577" t="s">
@@ -21676,7 +21677,7 @@
       <c r="E578" t="s">
         <v>2</v>
       </c>
-      <c r="F578" s="1">
+      <c r="F578" s="2">
         <v>15.75</v>
       </c>
       <c r="G578" t="s">
@@ -21705,7 +21706,7 @@
       <c r="E579" t="s">
         <v>2</v>
       </c>
-      <c r="F579" s="1">
+      <c r="F579" s="2">
         <v>48.95</v>
       </c>
       <c r="G579" t="s">
@@ -21734,7 +21735,7 @@
       <c r="E580" t="s">
         <v>2</v>
       </c>
-      <c r="F580" s="1">
+      <c r="F580" s="2">
         <v>66</v>
       </c>
       <c r="G580" t="s">
@@ -21763,7 +21764,7 @@
       <c r="E581" t="s">
         <v>2</v>
       </c>
-      <c r="F581" s="1">
+      <c r="F581" s="2">
         <v>47</v>
       </c>
       <c r="G581" t="s">
@@ -21792,7 +21793,7 @@
       <c r="E582" t="s">
         <v>2</v>
       </c>
-      <c r="F582" s="1">
+      <c r="F582" s="2">
         <v>39.5</v>
       </c>
       <c r="G582" t="s">
@@ -21821,7 +21822,7 @@
       <c r="E583" t="s">
         <v>2</v>
       </c>
-      <c r="F583" s="1">
+      <c r="F583" s="2">
         <v>47</v>
       </c>
       <c r="G583" t="s">
@@ -21850,7 +21851,7 @@
       <c r="E584" t="s">
         <v>2</v>
       </c>
-      <c r="F584" s="1">
+      <c r="F584" s="2">
         <v>56.4</v>
       </c>
       <c r="G584" t="s">
@@ -21879,7 +21880,7 @@
       <c r="E585" t="s">
         <v>2</v>
       </c>
-      <c r="F585" s="1">
+      <c r="F585" s="2">
         <v>55</v>
       </c>
       <c r="G585" t="s">
@@ -21908,7 +21909,7 @@
       <c r="E586" t="s">
         <v>2</v>
       </c>
-      <c r="F586" s="1">
+      <c r="F586" s="2">
         <v>1990</v>
       </c>
       <c r="G586" t="s">
@@ -21937,7 +21938,7 @@
       <c r="E587" t="s">
         <v>2</v>
       </c>
-      <c r="F587" s="1">
+      <c r="F587" s="2">
         <v>2455.6799999999998</v>
       </c>
       <c r="G587" t="s">
@@ -21966,7 +21967,7 @@
       <c r="E588" t="s">
         <v>2</v>
       </c>
-      <c r="F588" s="1">
+      <c r="F588" s="2">
         <v>2587.85</v>
       </c>
       <c r="G588" t="s">
@@ -21995,7 +21996,7 @@
       <c r="E589" t="s">
         <v>2</v>
       </c>
-      <c r="F589" s="1">
+      <c r="F589" s="2">
         <v>2800</v>
       </c>
       <c r="G589" t="s">
@@ -22024,7 +22025,7 @@
       <c r="E590" t="s">
         <v>2</v>
       </c>
-      <c r="F590" s="1">
+      <c r="F590" s="2">
         <v>2500</v>
       </c>
       <c r="G590" t="s">
@@ -22053,7 +22054,7 @@
       <c r="E591" t="s">
         <v>2</v>
       </c>
-      <c r="F591" s="1">
+      <c r="F591" s="2">
         <v>223</v>
       </c>
       <c r="G591" t="s">
@@ -22082,7 +22083,7 @@
       <c r="E592" t="s">
         <v>2</v>
       </c>
-      <c r="F592" s="1">
+      <c r="F592" s="2">
         <v>128.47999999999999</v>
       </c>
       <c r="G592" t="s">
@@ -22108,7 +22109,7 @@
       <c r="E593" t="s">
         <v>2</v>
       </c>
-      <c r="F593" s="1">
+      <c r="F593" s="2">
         <v>115.59</v>
       </c>
       <c r="G593" t="s">
@@ -22134,7 +22135,7 @@
       <c r="E594" t="s">
         <v>2</v>
       </c>
-      <c r="F594" s="1">
+      <c r="F594" s="2">
         <v>116.56</v>
       </c>
       <c r="G594" t="s">
@@ -22160,7 +22161,7 @@
       <c r="E595" t="s">
         <v>2</v>
       </c>
-      <c r="F595" s="1">
+      <c r="F595" s="2">
         <v>177.98</v>
       </c>
       <c r="G595" t="s">
@@ -22186,7 +22187,7 @@
       <c r="E596" t="s">
         <v>2</v>
       </c>
-      <c r="F596" s="1">
+      <c r="F596" s="2">
         <v>11</v>
       </c>
       <c r="G596" t="s">
@@ -22212,7 +22213,7 @@
       <c r="E597" t="s">
         <v>2</v>
       </c>
-      <c r="F597" s="1">
+      <c r="F597" s="2">
         <v>14.9</v>
       </c>
       <c r="G597" t="s">
@@ -22238,7 +22239,7 @@
       <c r="E598" t="s">
         <v>2</v>
       </c>
-      <c r="F598" s="1">
+      <c r="F598" s="2">
         <v>12</v>
       </c>
       <c r="G598" t="s">
@@ -22264,7 +22265,7 @@
       <c r="E599" t="s">
         <v>2</v>
       </c>
-      <c r="F599" s="1">
+      <c r="F599" s="2">
         <v>13.25</v>
       </c>
       <c r="G599" t="s">
@@ -22290,7 +22291,7 @@
       <c r="E600" t="s">
         <v>2</v>
       </c>
-      <c r="F600" s="1">
+      <c r="F600" s="2">
         <v>19.989999999999998</v>
       </c>
       <c r="G600" t="s">
@@ -22316,7 +22317,7 @@
       <c r="E601" t="s">
         <v>2</v>
       </c>
-      <c r="F601" s="1">
+      <c r="F601" s="2">
         <v>18.63</v>
       </c>
       <c r="G601" t="s">
@@ -22342,7 +22343,7 @@
       <c r="E602" t="s">
         <v>2</v>
       </c>
-      <c r="F602" s="1">
+      <c r="F602" s="2">
         <v>23</v>
       </c>
       <c r="G602" t="s">
@@ -22368,7 +22369,7 @@
       <c r="E603" t="s">
         <v>2</v>
       </c>
-      <c r="F603" s="1">
+      <c r="F603" s="2">
         <v>14.57</v>
       </c>
       <c r="G603" t="s">
@@ -22394,7 +22395,7 @@
       <c r="E604" t="s">
         <v>2</v>
       </c>
-      <c r="F604" s="1">
+      <c r="F604" s="2">
         <v>15</v>
       </c>
       <c r="G604" t="s">
@@ -22420,7 +22421,7 @@
       <c r="E605" t="s">
         <v>2</v>
       </c>
-      <c r="F605" s="1">
+      <c r="F605" s="2">
         <v>19.440000000000001</v>
       </c>
       <c r="G605" t="s">
@@ -22446,7 +22447,7 @@
       <c r="E606" t="s">
         <v>2</v>
       </c>
-      <c r="F606" s="1">
+      <c r="F606" s="2">
         <v>18</v>
       </c>
       <c r="G606" t="s">
@@ -22472,7 +22473,7 @@
       <c r="E607" t="s">
         <v>2</v>
       </c>
-      <c r="F607" s="1">
+      <c r="F607" s="2">
         <v>15.91</v>
       </c>
       <c r="G607" t="s">
@@ -22498,7 +22499,7 @@
       <c r="E608" t="s">
         <v>2</v>
       </c>
-      <c r="F608" s="1">
+      <c r="F608" s="2">
         <v>15</v>
       </c>
       <c r="G608" t="s">
@@ -22524,7 +22525,7 @@
       <c r="E609" t="s">
         <v>2</v>
       </c>
-      <c r="F609" s="1">
+      <c r="F609" s="2">
         <v>0.78</v>
       </c>
       <c r="G609" t="s">
@@ -22550,7 +22551,7 @@
       <c r="E610" t="s">
         <v>2</v>
       </c>
-      <c r="F610" s="1">
+      <c r="F610" s="2">
         <v>0.75</v>
       </c>
       <c r="G610" t="s">
@@ -22576,7 +22577,7 @@
       <c r="E611" t="s">
         <v>2</v>
       </c>
-      <c r="F611" s="1">
+      <c r="F611" s="2">
         <v>1.34</v>
       </c>
       <c r="G611" t="s">
@@ -22602,7 +22603,7 @@
       <c r="E612" t="s">
         <v>2</v>
       </c>
-      <c r="F612" s="1">
+      <c r="F612" s="2">
         <v>1.19</v>
       </c>
       <c r="G612" t="s">
@@ -22628,7 +22629,7 @@
       <c r="E613" t="s">
         <v>2</v>
       </c>
-      <c r="F613" s="1">
+      <c r="F613" s="2">
         <v>0.79</v>
       </c>
       <c r="G613" t="s">
@@ -22654,7 +22655,7 @@
       <c r="E614" t="s">
         <v>2</v>
       </c>
-      <c r="F614" s="1">
+      <c r="F614" s="2">
         <v>2.86</v>
       </c>
       <c r="G614" t="s">
@@ -22680,7 +22681,7 @@
       <c r="E615" t="s">
         <v>2</v>
       </c>
-      <c r="F615" s="1">
+      <c r="F615" s="2">
         <v>2.5</v>
       </c>
       <c r="G615" t="s">
@@ -22706,7 +22707,7 @@
       <c r="E616" t="s">
         <v>2</v>
       </c>
-      <c r="F616" s="1">
+      <c r="F616" s="2">
         <v>0.66</v>
       </c>
       <c r="G616" t="s">
@@ -22732,7 +22733,7 @@
       <c r="E617" t="s">
         <v>2</v>
       </c>
-      <c r="F617" s="1">
+      <c r="F617" s="2">
         <v>0.47</v>
       </c>
       <c r="G617" t="s">
@@ -22758,7 +22759,7 @@
       <c r="E618" t="s">
         <v>2</v>
       </c>
-      <c r="F618" s="1">
+      <c r="F618" s="2">
         <v>2.1</v>
       </c>
       <c r="G618" t="s">
@@ -22784,7 +22785,7 @@
       <c r="E619" t="s">
         <v>2</v>
       </c>
-      <c r="F619" s="1">
+      <c r="F619" s="2">
         <v>218.79</v>
       </c>
       <c r="G619" t="s">
@@ -22810,7 +22811,7 @@
       <c r="E620" t="s">
         <v>2</v>
       </c>
-      <c r="F620" s="1">
+      <c r="F620" s="2">
         <v>209</v>
       </c>
       <c r="G620" t="s">
@@ -22836,7 +22837,7 @@
       <c r="E621" t="s">
         <v>2</v>
       </c>
-      <c r="F621" s="1">
+      <c r="F621" s="2">
         <v>258.39999999999998</v>
       </c>
       <c r="G621" t="s">
@@ -22862,7 +22863,7 @@
       <c r="E622" t="s">
         <v>2</v>
       </c>
-      <c r="F622" s="1">
+      <c r="F622" s="2">
         <v>240.85</v>
       </c>
       <c r="G622" t="s">
@@ -22888,7 +22889,7 @@
       <c r="E623" t="s">
         <v>2</v>
       </c>
-      <c r="F623" s="1">
+      <c r="F623" s="2">
         <v>203.3</v>
       </c>
       <c r="G623" t="s">
@@ -22914,7 +22915,7 @@
       <c r="E624" t="s">
         <v>2</v>
       </c>
-      <c r="F624" s="1">
+      <c r="F624" s="2">
         <v>224.81</v>
       </c>
       <c r="G624" t="s">
@@ -22940,7 +22941,7 @@
       <c r="E625" t="s">
         <v>2</v>
       </c>
-      <c r="F625" s="1">
+      <c r="F625" s="2">
         <v>149.71</v>
       </c>
       <c r="G625" t="s">
@@ -22966,7 +22967,7 @@
       <c r="E626" t="s">
         <v>2</v>
       </c>
-      <c r="F626" s="1">
+      <c r="F626" s="2">
         <v>152.25</v>
       </c>
       <c r="G626" t="s">
@@ -22992,7 +22993,7 @@
       <c r="E627" t="s">
         <v>2</v>
       </c>
-      <c r="F627" s="1">
+      <c r="F627" s="2">
         <v>187</v>
       </c>
       <c r="G627" t="s">
@@ -23018,7 +23019,7 @@
       <c r="E628" t="s">
         <v>2</v>
       </c>
-      <c r="F628" s="1">
+      <c r="F628" s="2">
         <v>192</v>
       </c>
       <c r="G628" t="s">
@@ -23044,7 +23045,7 @@
       <c r="E629" t="s">
         <v>2</v>
       </c>
-      <c r="F629" s="1">
+      <c r="F629" s="2">
         <v>74.5</v>
       </c>
       <c r="G629" t="s">
@@ -23070,7 +23071,7 @@
       <c r="E630" t="s">
         <v>2</v>
       </c>
-      <c r="F630" s="1">
+      <c r="F630" s="2">
         <v>85.05</v>
       </c>
       <c r="G630" t="s">
@@ -23096,7 +23097,7 @@
       <c r="E631" t="s">
         <v>2</v>
       </c>
-      <c r="F631" s="1">
+      <c r="F631" s="2">
         <v>116.5</v>
       </c>
       <c r="G631" t="s">
@@ -23122,7 +23123,7 @@
       <c r="E632" t="s">
         <v>2</v>
       </c>
-      <c r="F632" s="1">
+      <c r="F632" s="2">
         <v>677</v>
       </c>
       <c r="G632" t="s">
@@ -23148,7 +23149,7 @@
       <c r="E633" t="s">
         <v>2</v>
       </c>
-      <c r="F633" s="1">
+      <c r="F633" s="2">
         <v>95</v>
       </c>
       <c r="G633" t="s">
@@ -23174,7 +23175,7 @@
       <c r="E634" t="s">
         <v>2</v>
       </c>
-      <c r="F634" s="1">
+      <c r="F634" s="2">
         <v>97.19</v>
       </c>
       <c r="G634" t="s">
@@ -23200,7 +23201,7 @@
       <c r="E635" t="s">
         <v>2</v>
       </c>
-      <c r="F635" s="1">
+      <c r="F635" s="2">
         <v>883.27</v>
       </c>
       <c r="G635" t="s">
@@ -23226,7 +23227,7 @@
       <c r="E636" t="s">
         <v>2</v>
       </c>
-      <c r="F636" s="1">
+      <c r="F636" s="2">
         <v>1190</v>
       </c>
       <c r="G636" t="s">
@@ -23252,7 +23253,7 @@
       <c r="E637" t="s">
         <v>2</v>
       </c>
-      <c r="F637" s="1">
+      <c r="F637" s="2">
         <v>76.63</v>
       </c>
       <c r="G637" t="s">
@@ -23278,7 +23279,7 @@
       <c r="E638" t="s">
         <v>2</v>
       </c>
-      <c r="F638" s="1">
+      <c r="F638" s="2">
         <v>112.64</v>
       </c>
       <c r="G638" t="s">
@@ -23304,7 +23305,7 @@
       <c r="E639" t="s">
         <v>2</v>
       </c>
-      <c r="F639" s="1">
+      <c r="F639" s="2">
         <v>62</v>
       </c>
       <c r="G639" t="s">
@@ -23330,7 +23331,7 @@
       <c r="E640" t="s">
         <v>2</v>
       </c>
-      <c r="F640" s="1">
+      <c r="F640" s="2">
         <v>81.12</v>
       </c>
       <c r="G640" t="s">
@@ -23356,7 +23357,7 @@
       <c r="E641" t="s">
         <v>2</v>
       </c>
-      <c r="F641" s="1">
+      <c r="F641" s="2">
         <v>99.22</v>
       </c>
       <c r="G641" t="s">
@@ -23385,7 +23386,7 @@
       <c r="E642" t="s">
         <v>647</v>
       </c>
-      <c r="F642" s="1">
+      <c r="F642" s="2">
         <v>14.93</v>
       </c>
       <c r="G642" t="s">
@@ -23417,7 +23418,7 @@
       <c r="E643" t="s">
         <v>647</v>
       </c>
-      <c r="F643" s="1">
+      <c r="F643" s="2">
         <v>15</v>
       </c>
       <c r="G643" t="s">
@@ -23449,7 +23450,7 @@
       <c r="E644" t="s">
         <v>647</v>
       </c>
-      <c r="F644" s="1">
+      <c r="F644" s="2">
         <v>14.1</v>
       </c>
       <c r="G644" t="s">
@@ -23481,7 +23482,7 @@
       <c r="E645" t="s">
         <v>647</v>
       </c>
-      <c r="F645" s="1">
+      <c r="F645" s="2">
         <v>14</v>
       </c>
       <c r="G645" t="s">
@@ -23513,7 +23514,7 @@
       <c r="E646" t="s">
         <v>647</v>
       </c>
-      <c r="F646" s="1">
+      <c r="F646" s="2">
         <v>13.5</v>
       </c>
       <c r="G646" t="s">
@@ -23545,7 +23546,7 @@
       <c r="E647" t="s">
         <v>647</v>
       </c>
-      <c r="F647" s="1">
+      <c r="F647" s="2">
         <v>13</v>
       </c>
       <c r="G647" t="s">
@@ -23577,7 +23578,7 @@
       <c r="E648" t="s">
         <v>647</v>
       </c>
-      <c r="F648" s="1">
+      <c r="F648" s="2">
         <v>15</v>
       </c>
       <c r="G648" t="s">
@@ -23609,7 +23610,7 @@
       <c r="E649" t="s">
         <v>647</v>
       </c>
-      <c r="F649" s="1">
+      <c r="F649" s="2">
         <v>12.99</v>
       </c>
       <c r="G649" t="s">
@@ -23641,7 +23642,7 @@
       <c r="E650" t="s">
         <v>647</v>
       </c>
-      <c r="F650" s="1">
+      <c r="F650" s="2">
         <v>12</v>
       </c>
       <c r="G650" t="s">
@@ -23673,7 +23674,7 @@
       <c r="E651" t="s">
         <v>647</v>
       </c>
-      <c r="F651" s="1">
+      <c r="F651" s="2">
         <v>12.99</v>
       </c>
       <c r="G651" t="s">
@@ -23705,7 +23706,7 @@
       <c r="E652" t="s">
         <v>2</v>
       </c>
-      <c r="F652" s="1">
+      <c r="F652" s="2">
         <v>21.52</v>
       </c>
       <c r="G652" t="s">
@@ -23737,7 +23738,7 @@
       <c r="E653" t="s">
         <v>2</v>
       </c>
-      <c r="F653" s="1">
+      <c r="F653" s="2">
         <v>19.5</v>
       </c>
       <c r="G653" t="s">
@@ -23769,7 +23770,7 @@
       <c r="E654" t="s">
         <v>2</v>
       </c>
-      <c r="F654" s="1">
+      <c r="F654" s="2">
         <v>20</v>
       </c>
       <c r="G654" t="s">
@@ -23801,7 +23802,7 @@
       <c r="E655" t="s">
         <v>2</v>
       </c>
-      <c r="F655" s="1">
+      <c r="F655" s="2">
         <v>15.06</v>
       </c>
       <c r="G655" t="s">
@@ -23833,7 +23834,7 @@
       <c r="E656" t="s">
         <v>2</v>
       </c>
-      <c r="F656" s="1">
+      <c r="F656" s="2">
         <v>18.8</v>
       </c>
       <c r="G656" t="s">
@@ -23865,7 +23866,7 @@
       <c r="E657" t="s">
         <v>2</v>
       </c>
-      <c r="F657" s="1">
+      <c r="F657" s="2">
         <v>21</v>
       </c>
       <c r="G657" t="s">
@@ -23894,7 +23895,7 @@
       <c r="E658" t="s">
         <v>2</v>
       </c>
-      <c r="F658" s="1">
+      <c r="F658" s="2">
         <v>20.96</v>
       </c>
       <c r="G658" t="s">
@@ -23923,7 +23924,7 @@
       <c r="E659" t="s">
         <v>2</v>
       </c>
-      <c r="F659" s="1">
+      <c r="F659" s="2">
         <v>24.79</v>
       </c>
       <c r="G659" t="s">
@@ -23952,7 +23953,7 @@
       <c r="E660" t="s">
         <v>2</v>
       </c>
-      <c r="F660" s="1">
+      <c r="F660" s="2">
         <v>18.559999999999999</v>
       </c>
       <c r="G660" t="s">
@@ -23981,7 +23982,7 @@
       <c r="E661" t="s">
         <v>2</v>
       </c>
-      <c r="F661" s="1">
+      <c r="F661" s="2">
         <v>23</v>
       </c>
       <c r="G661" t="s">
@@ -24010,7 +24011,7 @@
       <c r="E662" t="s">
         <v>2</v>
       </c>
-      <c r="F662" s="1">
+      <c r="F662" s="2">
         <v>16.989999999999998</v>
       </c>
       <c r="G662" t="s">
@@ -24036,7 +24037,7 @@
       <c r="E663" t="s">
         <v>31</v>
       </c>
-      <c r="F663" s="1">
+      <c r="F663" s="2">
         <v>1704.63</v>
       </c>
       <c r="G663" t="s">
@@ -24068,7 +24069,7 @@
       <c r="E664" t="s">
         <v>225</v>
       </c>
-      <c r="F664" s="1">
+      <c r="F664" s="2">
         <v>1243.76</v>
       </c>
       <c r="G664" t="s">
@@ -24100,7 +24101,7 @@
       <c r="E665" t="s">
         <v>225</v>
       </c>
-      <c r="F665" s="1">
+      <c r="F665" s="2">
         <v>2175</v>
       </c>
       <c r="G665" t="s">
@@ -24132,7 +24133,7 @@
       <c r="E666" t="s">
         <v>31</v>
       </c>
-      <c r="F666" s="1">
+      <c r="F666" s="2">
         <v>2570</v>
       </c>
       <c r="G666" t="s">
@@ -24161,7 +24162,7 @@
       <c r="E667" t="s">
         <v>225</v>
       </c>
-      <c r="F667" s="1">
+      <c r="F667" s="2">
         <v>1600</v>
       </c>
       <c r="G667" t="s">
@@ -24190,7 +24191,7 @@
       <c r="E668" t="s">
         <v>225</v>
       </c>
-      <c r="F668" s="1">
+      <c r="F668" s="2">
         <v>1600</v>
       </c>
       <c r="G668" t="s">
@@ -24222,7 +24223,7 @@
       <c r="E669" t="s">
         <v>225</v>
       </c>
-      <c r="F669" s="1">
+      <c r="F669" s="2">
         <v>3200</v>
       </c>
       <c r="G669" t="s">
@@ -24251,7 +24252,7 @@
       <c r="E670" t="s">
         <v>225</v>
       </c>
-      <c r="F670" s="1">
+      <c r="F670" s="2">
         <v>2980</v>
       </c>
       <c r="G670" t="s">
@@ -24280,7 +24281,7 @@
       <c r="E671" t="s">
         <v>225</v>
       </c>
-      <c r="F671" s="1">
+      <c r="F671" s="2">
         <v>2000</v>
       </c>
       <c r="G671" t="s">
@@ -24309,7 +24310,7 @@
       <c r="E672" t="s">
         <v>225</v>
       </c>
-      <c r="F672" s="1">
+      <c r="F672" s="2">
         <v>2300</v>
       </c>
       <c r="G672" t="s">
@@ -24338,7 +24339,7 @@
       <c r="E673" t="s">
         <v>225</v>
       </c>
-      <c r="F673" s="1">
+      <c r="F673" s="2">
         <v>3500</v>
       </c>
       <c r="G673" t="s">
@@ -24367,7 +24368,7 @@
       <c r="E674" t="s">
         <v>225</v>
       </c>
-      <c r="F674" s="1">
+      <c r="F674" s="2">
         <v>2380</v>
       </c>
       <c r="G674" t="s">
@@ -24396,7 +24397,7 @@
       <c r="E675" t="s">
         <v>2</v>
       </c>
-      <c r="F675" s="1">
+      <c r="F675" s="2">
         <v>115</v>
       </c>
       <c r="G675" t="s">
@@ -24425,7 +24426,7 @@
       <c r="E676" t="s">
         <v>2</v>
       </c>
-      <c r="F676" s="1">
+      <c r="F676" s="2">
         <v>200</v>
       </c>
       <c r="G676" t="s">
@@ -24454,7 +24455,7 @@
       <c r="E677" t="s">
         <v>2</v>
       </c>
-      <c r="F677" s="1">
+      <c r="F677" s="2">
         <v>239</v>
       </c>
       <c r="G677" t="s">
@@ -24483,7 +24484,7 @@
       <c r="E678" t="s">
         <v>2</v>
       </c>
-      <c r="F678" s="1">
+      <c r="F678" s="2">
         <v>179.98</v>
       </c>
       <c r="G678" t="s">
@@ -24512,7 +24513,7 @@
       <c r="E679" t="s">
         <v>2</v>
       </c>
-      <c r="F679" s="1">
+      <c r="F679" s="2">
         <v>204.37</v>
       </c>
       <c r="G679" t="s">
@@ -24541,7 +24542,7 @@
       <c r="E680" t="s">
         <v>2</v>
       </c>
-      <c r="F680" s="1">
+      <c r="F680" s="2">
         <v>188</v>
       </c>
       <c r="G680" t="s">
@@ -24570,7 +24571,7 @@
       <c r="E681" t="s">
         <v>2</v>
       </c>
-      <c r="F681" s="1">
+      <c r="F681" s="2">
         <v>214.5</v>
       </c>
       <c r="G681" t="s">
@@ -24599,7 +24600,7 @@
       <c r="E682" t="s">
         <v>2</v>
       </c>
-      <c r="F682" s="1">
+      <c r="F682" s="2">
         <v>140</v>
       </c>
       <c r="G682" t="s">
@@ -24628,7 +24629,7 @@
       <c r="E683" t="s">
         <v>2</v>
       </c>
-      <c r="F683" s="1">
+      <c r="F683" s="2">
         <v>172.6</v>
       </c>
       <c r="G683" t="s">
@@ -24657,7 +24658,7 @@
       <c r="E684" t="s">
         <v>690</v>
       </c>
-      <c r="F684" s="1">
+      <c r="F684" s="2">
         <v>27</v>
       </c>
       <c r="G684" t="s">
@@ -24686,7 +24687,7 @@
       <c r="E685" t="s">
         <v>690</v>
       </c>
-      <c r="F685" s="1">
+      <c r="F685" s="2">
         <v>30</v>
       </c>
       <c r="G685" t="s">
@@ -24715,7 +24716,7 @@
       <c r="E686" t="s">
         <v>690</v>
       </c>
-      <c r="F686" s="1">
+      <c r="F686" s="2">
         <v>30</v>
       </c>
       <c r="G686" t="s">
@@ -24744,7 +24745,7 @@
       <c r="E687" t="s">
         <v>690</v>
       </c>
-      <c r="F687" s="1">
+      <c r="F687" s="2">
         <v>32.5</v>
       </c>
       <c r="G687" t="s">
@@ -24773,7 +24774,7 @@
       <c r="E688" t="s">
         <v>690</v>
       </c>
-      <c r="F688" s="1">
+      <c r="F688" s="2">
         <v>43</v>
       </c>
       <c r="G688" t="s">
